--- a/Dispa-SET/Simulation/InputDispa-SET - Demand.xlsx
+++ b/Dispa-SET/Simulation/InputDispa-SET - Demand.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="224">
   <si>
     <t>Zone1</t>
   </si>
@@ -686,78 +686,6 @@
   </si>
   <si>
     <t>216</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>240</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IH12"/>
+  <dimension ref="A1:HJ12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
@@ -1130,12 +1058,12 @@
     <col min="1" max="2" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:242">
+    <row r="1" spans="1:218">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:242">
+    <row r="2" spans="1:218">
       <c r="C2">
         <v>2012</v>
       </c>
@@ -1784,80 +1712,8 @@
       <c r="HJ2">
         <v>2012</v>
       </c>
-      <c r="HK2">
-        <v>2012</v>
-      </c>
-      <c r="HL2">
-        <v>2012</v>
-      </c>
-      <c r="HM2">
-        <v>2012</v>
-      </c>
-      <c r="HN2">
-        <v>2012</v>
-      </c>
-      <c r="HO2">
-        <v>2012</v>
-      </c>
-      <c r="HP2">
-        <v>2012</v>
-      </c>
-      <c r="HQ2">
-        <v>2012</v>
-      </c>
-      <c r="HR2">
-        <v>2012</v>
-      </c>
-      <c r="HS2">
-        <v>2012</v>
-      </c>
-      <c r="HT2">
-        <v>2012</v>
-      </c>
-      <c r="HU2">
-        <v>2012</v>
-      </c>
-      <c r="HV2">
-        <v>2012</v>
-      </c>
-      <c r="HW2">
-        <v>2012</v>
-      </c>
-      <c r="HX2">
-        <v>2012</v>
-      </c>
-      <c r="HY2">
-        <v>2012</v>
-      </c>
-      <c r="HZ2">
-        <v>2012</v>
-      </c>
-      <c r="IA2">
-        <v>2012</v>
-      </c>
-      <c r="IB2">
-        <v>2012</v>
-      </c>
-      <c r="IC2">
-        <v>2012</v>
-      </c>
-      <c r="ID2">
-        <v>2012</v>
-      </c>
-      <c r="IE2">
-        <v>2012</v>
-      </c>
-      <c r="IF2">
-        <v>2012</v>
-      </c>
-      <c r="IG2">
-        <v>2012</v>
-      </c>
-      <c r="IH2">
-        <v>2012</v>
-      </c>
     </row>
-    <row r="3" spans="1:242">
+    <row r="3" spans="1:218">
       <c r="C3">
         <v>10</v>
       </c>
@@ -2506,80 +2362,8 @@
       <c r="HJ3">
         <v>10</v>
       </c>
-      <c r="HK3">
-        <v>10</v>
-      </c>
-      <c r="HL3">
-        <v>10</v>
-      </c>
-      <c r="HM3">
-        <v>10</v>
-      </c>
-      <c r="HN3">
-        <v>10</v>
-      </c>
-      <c r="HO3">
-        <v>10</v>
-      </c>
-      <c r="HP3">
-        <v>10</v>
-      </c>
-      <c r="HQ3">
-        <v>10</v>
-      </c>
-      <c r="HR3">
-        <v>10</v>
-      </c>
-      <c r="HS3">
-        <v>10</v>
-      </c>
-      <c r="HT3">
-        <v>10</v>
-      </c>
-      <c r="HU3">
-        <v>10</v>
-      </c>
-      <c r="HV3">
-        <v>10</v>
-      </c>
-      <c r="HW3">
-        <v>10</v>
-      </c>
-      <c r="HX3">
-        <v>10</v>
-      </c>
-      <c r="HY3">
-        <v>10</v>
-      </c>
-      <c r="HZ3">
-        <v>10</v>
-      </c>
-      <c r="IA3">
-        <v>10</v>
-      </c>
-      <c r="IB3">
-        <v>10</v>
-      </c>
-      <c r="IC3">
-        <v>10</v>
-      </c>
-      <c r="ID3">
-        <v>10</v>
-      </c>
-      <c r="IE3">
-        <v>10</v>
-      </c>
-      <c r="IF3">
-        <v>10</v>
-      </c>
-      <c r="IG3">
-        <v>10</v>
-      </c>
-      <c r="IH3">
-        <v>10</v>
-      </c>
     </row>
-    <row r="4" spans="1:242">
+    <row r="4" spans="1:218">
       <c r="C4">
         <v>1</v>
       </c>
@@ -3228,80 +3012,8 @@
       <c r="HJ4">
         <v>9</v>
       </c>
-      <c r="HK4">
-        <v>10</v>
-      </c>
-      <c r="HL4">
-        <v>10</v>
-      </c>
-      <c r="HM4">
-        <v>10</v>
-      </c>
-      <c r="HN4">
-        <v>10</v>
-      </c>
-      <c r="HO4">
-        <v>10</v>
-      </c>
-      <c r="HP4">
-        <v>10</v>
-      </c>
-      <c r="HQ4">
-        <v>10</v>
-      </c>
-      <c r="HR4">
-        <v>10</v>
-      </c>
-      <c r="HS4">
-        <v>10</v>
-      </c>
-      <c r="HT4">
-        <v>10</v>
-      </c>
-      <c r="HU4">
-        <v>10</v>
-      </c>
-      <c r="HV4">
-        <v>10</v>
-      </c>
-      <c r="HW4">
-        <v>10</v>
-      </c>
-      <c r="HX4">
-        <v>10</v>
-      </c>
-      <c r="HY4">
-        <v>10</v>
-      </c>
-      <c r="HZ4">
-        <v>10</v>
-      </c>
-      <c r="IA4">
-        <v>10</v>
-      </c>
-      <c r="IB4">
-        <v>10</v>
-      </c>
-      <c r="IC4">
-        <v>10</v>
-      </c>
-      <c r="ID4">
-        <v>10</v>
-      </c>
-      <c r="IE4">
-        <v>10</v>
-      </c>
-      <c r="IF4">
-        <v>10</v>
-      </c>
-      <c r="IG4">
-        <v>10</v>
-      </c>
-      <c r="IH4">
-        <v>10</v>
-      </c>
     </row>
-    <row r="5" spans="1:242">
+    <row r="5" spans="1:218">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3956,80 +3668,8 @@
       <c r="HJ5">
         <v>24</v>
       </c>
-      <c r="HK5">
-        <v>1</v>
-      </c>
-      <c r="HL5">
-        <v>2</v>
-      </c>
-      <c r="HM5">
-        <v>3</v>
-      </c>
-      <c r="HN5">
-        <v>4</v>
-      </c>
-      <c r="HO5">
-        <v>5</v>
-      </c>
-      <c r="HP5">
-        <v>6</v>
-      </c>
-      <c r="HQ5">
-        <v>7</v>
-      </c>
-      <c r="HR5">
-        <v>8</v>
-      </c>
-      <c r="HS5">
-        <v>9</v>
-      </c>
-      <c r="HT5">
-        <v>10</v>
-      </c>
-      <c r="HU5">
-        <v>11</v>
-      </c>
-      <c r="HV5">
-        <v>12</v>
-      </c>
-      <c r="HW5">
-        <v>13</v>
-      </c>
-      <c r="HX5">
-        <v>14</v>
-      </c>
-      <c r="HY5">
-        <v>15</v>
-      </c>
-      <c r="HZ5">
-        <v>16</v>
-      </c>
-      <c r="IA5">
-        <v>17</v>
-      </c>
-      <c r="IB5">
-        <v>18</v>
-      </c>
-      <c r="IC5">
-        <v>19</v>
-      </c>
-      <c r="ID5">
-        <v>20</v>
-      </c>
-      <c r="IE5">
-        <v>21</v>
-      </c>
-      <c r="IF5">
-        <v>22</v>
-      </c>
-      <c r="IG5">
-        <v>23</v>
-      </c>
-      <c r="IH5">
-        <v>24</v>
-      </c>
     </row>
-    <row r="6" spans="1:242">
+    <row r="6" spans="1:218">
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
@@ -4678,80 +4318,8 @@
       <c r="HJ6" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="HK6" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="HL6" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="HM6" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="HN6" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="HO6" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="HP6" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="HQ6" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="HR6" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="HS6" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="HT6" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="HU6" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="HV6" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="HW6" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="HX6" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="HY6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="HZ6" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="IA6" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="IB6" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="IC6" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="ID6" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="IE6" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="IF6" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="IG6" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="IH6" s="1" t="s">
-        <v>247</v>
-      </c>
     </row>
-    <row r="7" spans="1:242">
+    <row r="7" spans="1:218">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -5406,80 +4974,8 @@
       <c r="HJ7" s="2">
         <v>5004.66666666667</v>
       </c>
-      <c r="HK7" s="2">
-        <v>4735</v>
-      </c>
-      <c r="HL7" s="2">
-        <v>4482.66666666667</v>
-      </c>
-      <c r="HM7" s="2">
-        <v>4182.66666666667</v>
-      </c>
-      <c r="HN7" s="2">
-        <v>4097</v>
-      </c>
-      <c r="HO7" s="2">
-        <v>4077.33333333333</v>
-      </c>
-      <c r="HP7" s="2">
-        <v>4136</v>
-      </c>
-      <c r="HQ7" s="2">
-        <v>4231.33333333333</v>
-      </c>
-      <c r="HR7" s="2">
-        <v>4348.33333333333</v>
-      </c>
-      <c r="HS7" s="2">
-        <v>4435.33333333333</v>
-      </c>
-      <c r="HT7" s="2">
-        <v>4555.33333333333</v>
-      </c>
-      <c r="HU7" s="2">
-        <v>4551</v>
-      </c>
-      <c r="HV7" s="2">
-        <v>4576.33333333333</v>
-      </c>
-      <c r="HW7" s="2">
-        <v>4650.33333333333</v>
-      </c>
-      <c r="HX7" s="2">
-        <v>4637</v>
-      </c>
-      <c r="HY7" s="2">
-        <v>4594</v>
-      </c>
-      <c r="HZ7" s="2">
-        <v>4559.66666666667</v>
-      </c>
-      <c r="IA7" s="2">
-        <v>4626</v>
-      </c>
-      <c r="IB7" s="2">
-        <v>4756.66666666667</v>
-      </c>
-      <c r="IC7" s="2">
-        <v>5131.33333333333</v>
-      </c>
-      <c r="ID7" s="2">
-        <v>5562.66666666667</v>
-      </c>
-      <c r="IE7" s="2">
-        <v>5489.66666666667</v>
-      </c>
-      <c r="IF7" s="2">
-        <v>5219.66666666667</v>
-      </c>
-      <c r="IG7" s="2">
-        <v>5157.66666666667</v>
-      </c>
-      <c r="IH7" s="2">
-        <v>5096.33333333333</v>
-      </c>
     </row>
-    <row r="8" spans="1:242">
+    <row r="8" spans="1:218">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -6134,80 +5630,8 @@
       <c r="HJ8" s="2">
         <v>4646</v>
       </c>
-      <c r="HK8" s="2">
-        <v>4297</v>
-      </c>
-      <c r="HL8" s="2">
-        <v>4093.66666666667</v>
-      </c>
-      <c r="HM8" s="2">
-        <v>3908.66666666667</v>
-      </c>
-      <c r="HN8" s="2">
-        <v>3829</v>
-      </c>
-      <c r="HO8" s="2">
-        <v>3863.66666666667</v>
-      </c>
-      <c r="HP8" s="2">
-        <v>4088.66666666667</v>
-      </c>
-      <c r="HQ8" s="2">
-        <v>4583.33333333333</v>
-      </c>
-      <c r="HR8" s="2">
-        <v>5010.33333333333</v>
-      </c>
-      <c r="HS8" s="2">
-        <v>5005.66666666667</v>
-      </c>
-      <c r="HT8" s="2">
-        <v>4973.33333333333</v>
-      </c>
-      <c r="HU8" s="2">
-        <v>4753</v>
-      </c>
-      <c r="HV8" s="2">
-        <v>4619.66666666667</v>
-      </c>
-      <c r="HW8" s="2">
-        <v>4472.66666666667</v>
-      </c>
-      <c r="HX8" s="2">
-        <v>4436</v>
-      </c>
-      <c r="HY8" s="2">
-        <v>4446.33333333333</v>
-      </c>
-      <c r="HZ8" s="2">
-        <v>4505.66666666667</v>
-      </c>
-      <c r="IA8" s="2">
-        <v>4551.66666666667</v>
-      </c>
-      <c r="IB8" s="2">
-        <v>4676.66666666667</v>
-      </c>
-      <c r="IC8" s="2">
-        <v>4878.33333333333</v>
-      </c>
-      <c r="ID8" s="2">
-        <v>5136.33333333333</v>
-      </c>
-      <c r="IE8" s="2">
-        <v>5014</v>
-      </c>
-      <c r="IF8" s="2">
-        <v>4714.66666666667</v>
-      </c>
-      <c r="IG8" s="2">
-        <v>4709</v>
-      </c>
-      <c r="IH8" s="2">
-        <v>4589.66666666667</v>
-      </c>
     </row>
-    <row r="9" spans="1:242">
+    <row r="9" spans="1:218">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -6862,80 +6286,8 @@
       <c r="HJ9" s="2">
         <v>500</v>
       </c>
-      <c r="HK9" s="2">
-        <v>500</v>
-      </c>
-      <c r="HL9" s="2">
-        <v>500</v>
-      </c>
-      <c r="HM9" s="2">
-        <v>500</v>
-      </c>
-      <c r="HN9" s="2">
-        <v>500</v>
-      </c>
-      <c r="HO9" s="2">
-        <v>500</v>
-      </c>
-      <c r="HP9" s="2">
-        <v>500</v>
-      </c>
-      <c r="HQ9" s="2">
-        <v>500</v>
-      </c>
-      <c r="HR9" s="2">
-        <v>500</v>
-      </c>
-      <c r="HS9" s="2">
-        <v>500</v>
-      </c>
-      <c r="HT9" s="2">
-        <v>500</v>
-      </c>
-      <c r="HU9" s="2">
-        <v>500</v>
-      </c>
-      <c r="HV9" s="2">
-        <v>500</v>
-      </c>
-      <c r="HW9" s="2">
-        <v>500</v>
-      </c>
-      <c r="HX9" s="2">
-        <v>500</v>
-      </c>
-      <c r="HY9" s="2">
-        <v>500</v>
-      </c>
-      <c r="HZ9" s="2">
-        <v>500</v>
-      </c>
-      <c r="IA9" s="2">
-        <v>500</v>
-      </c>
-      <c r="IB9" s="2">
-        <v>500</v>
-      </c>
-      <c r="IC9" s="2">
-        <v>500</v>
-      </c>
-      <c r="ID9" s="2">
-        <v>500</v>
-      </c>
-      <c r="IE9" s="2">
-        <v>500</v>
-      </c>
-      <c r="IF9" s="2">
-        <v>500</v>
-      </c>
-      <c r="IG9" s="2">
-        <v>500</v>
-      </c>
-      <c r="IH9" s="2">
-        <v>500</v>
-      </c>
     </row>
-    <row r="10" spans="1:242">
+    <row r="10" spans="1:218">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -7590,80 +6942,8 @@
       <c r="HJ10" s="2">
         <v>500</v>
       </c>
-      <c r="HK10" s="2">
-        <v>500</v>
-      </c>
-      <c r="HL10" s="2">
-        <v>500</v>
-      </c>
-      <c r="HM10" s="2">
-        <v>500</v>
-      </c>
-      <c r="HN10" s="2">
-        <v>500</v>
-      </c>
-      <c r="HO10" s="2">
-        <v>500</v>
-      </c>
-      <c r="HP10" s="2">
-        <v>500</v>
-      </c>
-      <c r="HQ10" s="2">
-        <v>500</v>
-      </c>
-      <c r="HR10" s="2">
-        <v>500</v>
-      </c>
-      <c r="HS10" s="2">
-        <v>500</v>
-      </c>
-      <c r="HT10" s="2">
-        <v>500</v>
-      </c>
-      <c r="HU10" s="2">
-        <v>500</v>
-      </c>
-      <c r="HV10" s="2">
-        <v>500</v>
-      </c>
-      <c r="HW10" s="2">
-        <v>500</v>
-      </c>
-      <c r="HX10" s="2">
-        <v>500</v>
-      </c>
-      <c r="HY10" s="2">
-        <v>500</v>
-      </c>
-      <c r="HZ10" s="2">
-        <v>500</v>
-      </c>
-      <c r="IA10" s="2">
-        <v>500</v>
-      </c>
-      <c r="IB10" s="2">
-        <v>500</v>
-      </c>
-      <c r="IC10" s="2">
-        <v>500</v>
-      </c>
-      <c r="ID10" s="2">
-        <v>500</v>
-      </c>
-      <c r="IE10" s="2">
-        <v>500</v>
-      </c>
-      <c r="IF10" s="2">
-        <v>500</v>
-      </c>
-      <c r="IG10" s="2">
-        <v>500</v>
-      </c>
-      <c r="IH10" s="2">
-        <v>500</v>
-      </c>
     </row>
-    <row r="11" spans="1:242">
+    <row r="11" spans="1:218">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -8318,80 +7598,8 @@
       <c r="HJ11" s="2">
         <v>250</v>
       </c>
-      <c r="HK11" s="2">
-        <v>250</v>
-      </c>
-      <c r="HL11" s="2">
-        <v>250</v>
-      </c>
-      <c r="HM11" s="2">
-        <v>250</v>
-      </c>
-      <c r="HN11" s="2">
-        <v>250</v>
-      </c>
-      <c r="HO11" s="2">
-        <v>250</v>
-      </c>
-      <c r="HP11" s="2">
-        <v>250</v>
-      </c>
-      <c r="HQ11" s="2">
-        <v>250</v>
-      </c>
-      <c r="HR11" s="2">
-        <v>250</v>
-      </c>
-      <c r="HS11" s="2">
-        <v>250</v>
-      </c>
-      <c r="HT11" s="2">
-        <v>250</v>
-      </c>
-      <c r="HU11" s="2">
-        <v>250</v>
-      </c>
-      <c r="HV11" s="2">
-        <v>250</v>
-      </c>
-      <c r="HW11" s="2">
-        <v>250</v>
-      </c>
-      <c r="HX11" s="2">
-        <v>250</v>
-      </c>
-      <c r="HY11" s="2">
-        <v>250</v>
-      </c>
-      <c r="HZ11" s="2">
-        <v>250</v>
-      </c>
-      <c r="IA11" s="2">
-        <v>250</v>
-      </c>
-      <c r="IB11" s="2">
-        <v>250</v>
-      </c>
-      <c r="IC11" s="2">
-        <v>250</v>
-      </c>
-      <c r="ID11" s="2">
-        <v>250</v>
-      </c>
-      <c r="IE11" s="2">
-        <v>250</v>
-      </c>
-      <c r="IF11" s="2">
-        <v>250</v>
-      </c>
-      <c r="IG11" s="2">
-        <v>250</v>
-      </c>
-      <c r="IH11" s="2">
-        <v>250</v>
-      </c>
     </row>
-    <row r="12" spans="1:242">
+    <row r="12" spans="1:218">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -9044,78 +8252,6 @@
         <v>250</v>
       </c>
       <c r="HJ12" s="2">
-        <v>250</v>
-      </c>
-      <c r="HK12" s="2">
-        <v>250</v>
-      </c>
-      <c r="HL12" s="2">
-        <v>250</v>
-      </c>
-      <c r="HM12" s="2">
-        <v>250</v>
-      </c>
-      <c r="HN12" s="2">
-        <v>250</v>
-      </c>
-      <c r="HO12" s="2">
-        <v>250</v>
-      </c>
-      <c r="HP12" s="2">
-        <v>250</v>
-      </c>
-      <c r="HQ12" s="2">
-        <v>250</v>
-      </c>
-      <c r="HR12" s="2">
-        <v>250</v>
-      </c>
-      <c r="HS12" s="2">
-        <v>250</v>
-      </c>
-      <c r="HT12" s="2">
-        <v>250</v>
-      </c>
-      <c r="HU12" s="2">
-        <v>250</v>
-      </c>
-      <c r="HV12" s="2">
-        <v>250</v>
-      </c>
-      <c r="HW12" s="2">
-        <v>250</v>
-      </c>
-      <c r="HX12" s="2">
-        <v>250</v>
-      </c>
-      <c r="HY12" s="2">
-        <v>250</v>
-      </c>
-      <c r="HZ12" s="2">
-        <v>250</v>
-      </c>
-      <c r="IA12" s="2">
-        <v>250</v>
-      </c>
-      <c r="IB12" s="2">
-        <v>250</v>
-      </c>
-      <c r="IC12" s="2">
-        <v>250</v>
-      </c>
-      <c r="ID12" s="2">
-        <v>250</v>
-      </c>
-      <c r="IE12" s="2">
-        <v>250</v>
-      </c>
-      <c r="IF12" s="2">
-        <v>250</v>
-      </c>
-      <c r="IG12" s="2">
-        <v>250</v>
-      </c>
-      <c r="IH12" s="2">
         <v>250</v>
       </c>
     </row>

--- a/Dispa-SET/Simulation/InputDispa-SET - Demand.xlsx
+++ b/Dispa-SET/Simulation/InputDispa-SET - Demand.xlsx
@@ -744,12 +744,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4320,3938 +4319,3938 @@
       </c>
     </row>
     <row r="7" spans="1:218">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>4977.66666666667</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>4671.66666666667</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>4453.66666666667</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7">
         <v>4413</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <v>4434.66666666667</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7">
         <v>4555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7">
         <v>5110.33333333333</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7">
         <v>5685.66666666667</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7">
         <v>5808.66666666667</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7">
         <v>6007.66666666667</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7">
         <v>6024</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7">
         <v>6046.33333333333</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7">
         <v>5958.66666666667</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7">
         <v>5848.33333333333</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7">
         <v>5747.66666666667</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7">
         <v>5656</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7">
         <v>5498.66666666667</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7">
         <v>5600.33333333333</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7">
         <v>5724.33333333333</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7">
         <v>5906.33333333333</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7">
         <v>5766.66666666667</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7">
         <v>5414.33333333333</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Y7">
         <v>5477</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z7">
         <v>5381.33333333333</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AA7">
         <v>4957.66666666667</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB7">
         <v>4609.66666666667</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AC7">
         <v>4323.66666666667</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AD7">
         <v>4171</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AE7">
         <v>4122.33333333333</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AF7">
         <v>4140.66666666667</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AG7">
         <v>4265</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AH7">
         <v>4502</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="AI7">
         <v>4688</v>
       </c>
-      <c r="AJ7" s="2">
+      <c r="AJ7">
         <v>5039</v>
       </c>
-      <c r="AK7" s="2">
+      <c r="AK7">
         <v>5281</v>
       </c>
-      <c r="AL7" s="2">
+      <c r="AL7">
         <v>5371.33333333333</v>
       </c>
-      <c r="AM7" s="2">
+      <c r="AM7">
         <v>5340.33333333333</v>
       </c>
-      <c r="AN7" s="2">
+      <c r="AN7">
         <v>5263.33333333333</v>
       </c>
-      <c r="AO7" s="2">
+      <c r="AO7">
         <v>5112.66666666667</v>
       </c>
-      <c r="AP7" s="2">
+      <c r="AP7">
         <v>4959.66666666667</v>
       </c>
-      <c r="AQ7" s="2">
+      <c r="AQ7">
         <v>4974</v>
       </c>
-      <c r="AR7" s="2">
+      <c r="AR7">
         <v>5128.66666666667</v>
       </c>
-      <c r="AS7" s="2">
+      <c r="AS7">
         <v>5284.33333333333</v>
       </c>
-      <c r="AT7" s="2">
+      <c r="AT7">
         <v>5489.33333333333</v>
       </c>
-      <c r="AU7" s="2">
+      <c r="AU7">
         <v>5424</v>
       </c>
-      <c r="AV7" s="2">
+      <c r="AV7">
         <v>5088.66666666667</v>
       </c>
-      <c r="AW7" s="2">
+      <c r="AW7">
         <v>5064.66666666667</v>
       </c>
-      <c r="AX7" s="2">
+      <c r="AX7">
         <v>5012.33333333333</v>
       </c>
-      <c r="AY7" s="2">
+      <c r="AY7">
         <v>4716.66666666667</v>
       </c>
-      <c r="AZ7" s="2">
+      <c r="AZ7">
         <v>4427.66666666667</v>
       </c>
-      <c r="BA7" s="2">
+      <c r="BA7">
         <v>4271.66666666667</v>
       </c>
-      <c r="BB7" s="2">
+      <c r="BB7">
         <v>4155</v>
       </c>
-      <c r="BC7" s="2">
+      <c r="BC7">
         <v>4120</v>
       </c>
-      <c r="BD7" s="2">
+      <c r="BD7">
         <v>4132.66666666667</v>
       </c>
-      <c r="BE7" s="2">
+      <c r="BE7">
         <v>4252.33333333333</v>
       </c>
-      <c r="BF7" s="2">
+      <c r="BF7">
         <v>4262.66666666667</v>
       </c>
-      <c r="BG7" s="2">
+      <c r="BG7">
         <v>4366</v>
       </c>
-      <c r="BH7" s="2">
+      <c r="BH7">
         <v>4508.33333333333</v>
       </c>
-      <c r="BI7" s="2">
+      <c r="BI7">
         <v>4471</v>
       </c>
-      <c r="BJ7" s="2">
+      <c r="BJ7">
         <v>4393.33333333333</v>
       </c>
-      <c r="BK7" s="2">
+      <c r="BK7">
         <v>4437.66666666667</v>
       </c>
-      <c r="BL7" s="2">
+      <c r="BL7">
         <v>4300.66666666667</v>
       </c>
-      <c r="BM7" s="2">
+      <c r="BM7">
         <v>4138.33333333333</v>
       </c>
-      <c r="BN7" s="2">
+      <c r="BN7">
         <v>4066.66666666667</v>
       </c>
-      <c r="BO7" s="2">
+      <c r="BO7">
         <v>4201</v>
       </c>
-      <c r="BP7" s="2">
+      <c r="BP7">
         <v>4513.33333333333</v>
       </c>
-      <c r="BQ7" s="2">
+      <c r="BQ7">
         <v>4882</v>
       </c>
-      <c r="BR7" s="2">
+      <c r="BR7">
         <v>5344.66666666667</v>
       </c>
-      <c r="BS7" s="2">
+      <c r="BS7">
         <v>5430</v>
       </c>
-      <c r="BT7" s="2">
+      <c r="BT7">
         <v>5187</v>
       </c>
-      <c r="BU7" s="2">
+      <c r="BU7">
         <v>5009.33333333333</v>
       </c>
-      <c r="BV7" s="2">
+      <c r="BV7">
         <v>4981.66666666667</v>
       </c>
-      <c r="BW7" s="2">
+      <c r="BW7">
         <v>4668.33333333333</v>
       </c>
-      <c r="BX7" s="2">
+      <c r="BX7">
         <v>4423.33333333333</v>
       </c>
-      <c r="BY7" s="2">
+      <c r="BY7">
         <v>4284.33333333333</v>
       </c>
-      <c r="BZ7" s="2">
+      <c r="BZ7">
         <v>4163.33333333333</v>
       </c>
-      <c r="CA7" s="2">
+      <c r="CA7">
         <v>4228.66666666667</v>
       </c>
-      <c r="CB7" s="2">
+      <c r="CB7">
         <v>4488.33333333333</v>
       </c>
-      <c r="CC7" s="2">
+      <c r="CC7">
         <v>5140</v>
       </c>
-      <c r="CD7" s="2">
+      <c r="CD7">
         <v>5798.33333333333</v>
       </c>
-      <c r="CE7" s="2">
+      <c r="CE7">
         <v>5834.33333333333</v>
       </c>
-      <c r="CF7" s="2">
+      <c r="CF7">
         <v>5941</v>
       </c>
-      <c r="CG7" s="2">
+      <c r="CG7">
         <v>5893.33333333333</v>
       </c>
-      <c r="CH7" s="2">
+      <c r="CH7">
         <v>5875.66666666667</v>
       </c>
-      <c r="CI7" s="2">
+      <c r="CI7">
         <v>5666.33333333333</v>
       </c>
-      <c r="CJ7" s="2">
+      <c r="CJ7">
         <v>5552.66666666667</v>
       </c>
-      <c r="CK7" s="2">
+      <c r="CK7">
         <v>5537.66666666667</v>
       </c>
-      <c r="CL7" s="2">
+      <c r="CL7">
         <v>5564.66666666667</v>
       </c>
-      <c r="CM7" s="2">
+      <c r="CM7">
         <v>5731.33333333333</v>
       </c>
-      <c r="CN7" s="2">
+      <c r="CN7">
         <v>5894</v>
       </c>
-      <c r="CO7" s="2">
+      <c r="CO7">
         <v>6018.33333333333</v>
       </c>
-      <c r="CP7" s="2">
+      <c r="CP7">
         <v>6246.66666666667</v>
       </c>
-      <c r="CQ7" s="2">
+      <c r="CQ7">
         <v>6063.33333333333</v>
       </c>
-      <c r="CR7" s="2">
+      <c r="CR7">
         <v>5729.33333333333</v>
       </c>
-      <c r="CS7" s="2">
+      <c r="CS7">
         <v>5730.33333333333</v>
       </c>
-      <c r="CT7" s="2">
+      <c r="CT7">
         <v>5645.66666666667</v>
       </c>
-      <c r="CU7" s="2">
+      <c r="CU7">
         <v>5185.66666666667</v>
       </c>
-      <c r="CV7" s="2">
+      <c r="CV7">
         <v>4886</v>
       </c>
-      <c r="CW7" s="2">
+      <c r="CW7">
         <v>4697.33333333333</v>
       </c>
-      <c r="CX7" s="2">
+      <c r="CX7">
         <v>4549.33333333333</v>
       </c>
-      <c r="CY7" s="2">
+      <c r="CY7">
         <v>4571.66666666667</v>
       </c>
-      <c r="CZ7" s="2">
+      <c r="CZ7">
         <v>4772.33333333333</v>
       </c>
-      <c r="DA7" s="2">
+      <c r="DA7">
         <v>5352.33333333333</v>
       </c>
-      <c r="DB7" s="2">
+      <c r="DB7">
         <v>5987.33333333333</v>
       </c>
-      <c r="DC7" s="2">
+      <c r="DC7">
         <v>5970</v>
       </c>
-      <c r="DD7" s="2">
+      <c r="DD7">
         <v>5905.33333333333</v>
       </c>
-      <c r="DE7" s="2">
+      <c r="DE7">
         <v>5718.33333333333</v>
       </c>
-      <c r="DF7" s="2">
+      <c r="DF7">
         <v>5613</v>
       </c>
-      <c r="DG7" s="2">
+      <c r="DG7">
         <v>5467.33333333333</v>
       </c>
-      <c r="DH7" s="2">
+      <c r="DH7">
         <v>5484.66666666667</v>
       </c>
-      <c r="DI7" s="2">
+      <c r="DI7">
         <v>5514.33333333333</v>
       </c>
-      <c r="DJ7" s="2">
+      <c r="DJ7">
         <v>5569.66666666667</v>
       </c>
-      <c r="DK7" s="2">
+      <c r="DK7">
         <v>5602.33333333333</v>
       </c>
-      <c r="DL7" s="2">
+      <c r="DL7">
         <v>5814</v>
       </c>
-      <c r="DM7" s="2">
+      <c r="DM7">
         <v>5959.66666666667</v>
       </c>
-      <c r="DN7" s="2">
+      <c r="DN7">
         <v>6226.33333333333</v>
       </c>
-      <c r="DO7" s="2">
+      <c r="DO7">
         <v>6075</v>
       </c>
-      <c r="DP7" s="2">
+      <c r="DP7">
         <v>5715</v>
       </c>
-      <c r="DQ7" s="2">
+      <c r="DQ7">
         <v>5718</v>
       </c>
-      <c r="DR7" s="2">
+      <c r="DR7">
         <v>5575.33333333333</v>
       </c>
-      <c r="DS7" s="2">
+      <c r="DS7">
         <v>5156.33333333333</v>
       </c>
-      <c r="DT7" s="2">
+      <c r="DT7">
         <v>4912.33333333333</v>
       </c>
-      <c r="DU7" s="2">
+      <c r="DU7">
         <v>4690</v>
       </c>
-      <c r="DV7" s="2">
+      <c r="DV7">
         <v>4595</v>
       </c>
-      <c r="DW7" s="2">
+      <c r="DW7">
         <v>4636.33333333333</v>
       </c>
-      <c r="DX7" s="2">
+      <c r="DX7">
         <v>4906.33333333333</v>
       </c>
-      <c r="DY7" s="2">
+      <c r="DY7">
         <v>5500.33333333333</v>
       </c>
-      <c r="DZ7" s="2">
+      <c r="DZ7">
         <v>6012</v>
       </c>
-      <c r="EA7" s="2">
+      <c r="EA7">
         <v>6007</v>
       </c>
-      <c r="EB7" s="2">
+      <c r="EB7">
         <v>5968</v>
       </c>
-      <c r="EC7" s="2">
+      <c r="EC7">
         <v>5703.66666666667</v>
       </c>
-      <c r="ED7" s="2">
+      <c r="ED7">
         <v>5543.33333333333</v>
       </c>
-      <c r="EE7" s="2">
+      <c r="EE7">
         <v>5367.33333333333</v>
       </c>
-      <c r="EF7" s="2">
+      <c r="EF7">
         <v>5323</v>
       </c>
-      <c r="EG7" s="2">
+      <c r="EG7">
         <v>5335.33333333333</v>
       </c>
-      <c r="EH7" s="2">
+      <c r="EH7">
         <v>5407</v>
       </c>
-      <c r="EI7" s="2">
+      <c r="EI7">
         <v>5462</v>
       </c>
-      <c r="EJ7" s="2">
+      <c r="EJ7">
         <v>5611.66666666667</v>
       </c>
-      <c r="EK7" s="2">
+      <c r="EK7">
         <v>5854</v>
       </c>
-      <c r="EL7" s="2">
+      <c r="EL7">
         <v>6164</v>
       </c>
-      <c r="EM7" s="2">
+      <c r="EM7">
         <v>6016.66666666667</v>
       </c>
-      <c r="EN7" s="2">
+      <c r="EN7">
         <v>5657.66666666667</v>
       </c>
-      <c r="EO7" s="2">
+      <c r="EO7">
         <v>5650.66666666667</v>
       </c>
-      <c r="EP7" s="2">
+      <c r="EP7">
         <v>5508</v>
       </c>
-      <c r="EQ7" s="2">
+      <c r="EQ7">
         <v>5167.66666666667</v>
       </c>
-      <c r="ER7" s="2">
+      <c r="ER7">
         <v>4793.33333333333</v>
       </c>
-      <c r="ES7" s="2">
+      <c r="ES7">
         <v>4577</v>
       </c>
-      <c r="ET7" s="2">
+      <c r="ET7">
         <v>4491</v>
       </c>
-      <c r="EU7" s="2">
+      <c r="EU7">
         <v>4572.66666666667</v>
       </c>
-      <c r="EV7" s="2">
+      <c r="EV7">
         <v>4786</v>
       </c>
-      <c r="EW7" s="2">
+      <c r="EW7">
         <v>5318.33333333333</v>
       </c>
-      <c r="EX7" s="2">
+      <c r="EX7">
         <v>5947.66666666667</v>
       </c>
-      <c r="EY7" s="2">
+      <c r="EY7">
         <v>5997</v>
       </c>
-      <c r="EZ7" s="2">
+      <c r="EZ7">
         <v>5945.66666666667</v>
       </c>
-      <c r="FA7" s="2">
+      <c r="FA7">
         <v>5835.33333333333</v>
       </c>
-      <c r="FB7" s="2">
+      <c r="FB7">
         <v>5703.66666666667</v>
       </c>
-      <c r="FC7" s="2">
+      <c r="FC7">
         <v>5424.33333333333</v>
       </c>
-      <c r="FD7" s="2">
+      <c r="FD7">
         <v>5303.66666666667</v>
       </c>
-      <c r="FE7" s="2">
+      <c r="FE7">
         <v>5302.33333333333</v>
       </c>
-      <c r="FF7" s="2">
+      <c r="FF7">
         <v>5364.66666666667</v>
       </c>
-      <c r="FG7" s="2">
+      <c r="FG7">
         <v>5588.33333333333</v>
       </c>
-      <c r="FH7" s="2">
+      <c r="FH7">
         <v>5863.33333333333</v>
       </c>
-      <c r="FI7" s="2">
+      <c r="FI7">
         <v>5978</v>
       </c>
-      <c r="FJ7" s="2">
+      <c r="FJ7">
         <v>6191</v>
       </c>
-      <c r="FK7" s="2">
+      <c r="FK7">
         <v>6014.33333333333</v>
       </c>
-      <c r="FL7" s="2">
+      <c r="FL7">
         <v>5638.33333333333</v>
       </c>
-      <c r="FM7" s="2">
+      <c r="FM7">
         <v>5683.66666666667</v>
       </c>
-      <c r="FN7" s="2">
+      <c r="FN7">
         <v>5585</v>
       </c>
-      <c r="FO7" s="2">
+      <c r="FO7">
         <v>5130.33333333333</v>
       </c>
-      <c r="FP7" s="2">
+      <c r="FP7">
         <v>4823.33333333333</v>
       </c>
-      <c r="FQ7" s="2">
+      <c r="FQ7">
         <v>4545.66666666667</v>
       </c>
-      <c r="FR7" s="2">
+      <c r="FR7">
         <v>4518.33333333333</v>
       </c>
-      <c r="FS7" s="2">
+      <c r="FS7">
         <v>4527.33333333333</v>
       </c>
-      <c r="FT7" s="2">
+      <c r="FT7">
         <v>4699.66666666667</v>
       </c>
-      <c r="FU7" s="2">
+      <c r="FU7">
         <v>5288.33333333333</v>
       </c>
-      <c r="FV7" s="2">
+      <c r="FV7">
         <v>5973.33333333333</v>
       </c>
-      <c r="FW7" s="2">
+      <c r="FW7">
         <v>6034.33333333333</v>
       </c>
-      <c r="FX7" s="2">
+      <c r="FX7">
         <v>6039</v>
       </c>
-      <c r="FY7" s="2">
+      <c r="FY7">
         <v>5944.66666666667</v>
       </c>
-      <c r="FZ7" s="2">
+      <c r="FZ7">
         <v>5887.33333333333</v>
       </c>
-      <c r="GA7" s="2">
+      <c r="GA7">
         <v>5680.66666666667</v>
       </c>
-      <c r="GB7" s="2">
+      <c r="GB7">
         <v>5511</v>
       </c>
-      <c r="GC7" s="2">
+      <c r="GC7">
         <v>5457</v>
       </c>
-      <c r="GD7" s="2">
+      <c r="GD7">
         <v>5317</v>
       </c>
-      <c r="GE7" s="2">
+      <c r="GE7">
         <v>5232.66666666667</v>
       </c>
-      <c r="GF7" s="2">
+      <c r="GF7">
         <v>5349.66666666667</v>
       </c>
-      <c r="GG7" s="2">
+      <c r="GG7">
         <v>5556.33333333333</v>
       </c>
-      <c r="GH7" s="2">
+      <c r="GH7">
         <v>5867.33333333333</v>
       </c>
-      <c r="GI7" s="2">
+      <c r="GI7">
         <v>5713.33333333333</v>
       </c>
-      <c r="GJ7" s="2">
+      <c r="GJ7">
         <v>5402.66666666667</v>
       </c>
-      <c r="GK7" s="2">
+      <c r="GK7">
         <v>5463.66666666667</v>
       </c>
-      <c r="GL7" s="2">
+      <c r="GL7">
         <v>5386.33333333333</v>
       </c>
-      <c r="GM7" s="2">
+      <c r="GM7">
         <v>4930</v>
       </c>
-      <c r="GN7" s="2">
+      <c r="GN7">
         <v>4638.66666666667</v>
       </c>
-      <c r="GO7" s="2">
+      <c r="GO7">
         <v>4327.33333333333</v>
       </c>
-      <c r="GP7" s="2">
+      <c r="GP7">
         <v>4256.66666666667</v>
       </c>
-      <c r="GQ7" s="2">
+      <c r="GQ7">
         <v>4252.33333333333</v>
       </c>
-      <c r="GR7" s="2">
+      <c r="GR7">
         <v>4272</v>
       </c>
-      <c r="GS7" s="2">
+      <c r="GS7">
         <v>4384.33333333333</v>
       </c>
-      <c r="GT7" s="2">
+      <c r="GT7">
         <v>4568</v>
       </c>
-      <c r="GU7" s="2">
+      <c r="GU7">
         <v>4775.66666666667</v>
       </c>
-      <c r="GV7" s="2">
+      <c r="GV7">
         <v>5074.66666666667</v>
       </c>
-      <c r="GW7" s="2">
+      <c r="GW7">
         <v>5194.33333333333</v>
       </c>
-      <c r="GX7" s="2">
+      <c r="GX7">
         <v>5369.66666666667</v>
       </c>
-      <c r="GY7" s="2">
+      <c r="GY7">
         <v>5306</v>
       </c>
-      <c r="GZ7" s="2">
+      <c r="GZ7">
         <v>5195</v>
       </c>
-      <c r="HA7" s="2">
+      <c r="HA7">
         <v>5136</v>
       </c>
-      <c r="HB7" s="2">
+      <c r="HB7">
         <v>5169.66666666667</v>
       </c>
-      <c r="HC7" s="2">
+      <c r="HC7">
         <v>5064</v>
       </c>
-      <c r="HD7" s="2">
+      <c r="HD7">
         <v>5159</v>
       </c>
-      <c r="HE7" s="2">
+      <c r="HE7">
         <v>5228.66666666667</v>
       </c>
-      <c r="HF7" s="2">
+      <c r="HF7">
         <v>5542</v>
       </c>
-      <c r="HG7" s="2">
+      <c r="HG7">
         <v>5363</v>
       </c>
-      <c r="HH7" s="2">
+      <c r="HH7">
         <v>5095.33333333333</v>
       </c>
-      <c r="HI7" s="2">
+      <c r="HI7">
         <v>5005.33333333333</v>
       </c>
-      <c r="HJ7" s="2">
+      <c r="HJ7">
         <v>5004.66666666667</v>
       </c>
     </row>
     <row r="8" spans="1:218">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>3714</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>3503.33333333333</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>3382.33333333333</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>3360.66666666667</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>3381</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8">
         <v>3621</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8">
         <v>4166</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8">
         <v>4636.66666666667</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8">
         <v>4657.33333333333</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8">
         <v>4659.33333333333</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8">
         <v>4591.33333333333</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8">
         <v>4453.33333333333</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8">
         <v>4235.33333333333</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8">
         <v>4199.66666666667</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8">
         <v>4241</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8">
         <v>4313</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8">
         <v>4430.33333333333</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8">
         <v>4639.33333333333</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8">
         <v>4803.66666666667</v>
       </c>
-      <c r="V8" s="2">
+      <c r="V8">
         <v>4885.66666666667</v>
       </c>
-      <c r="W8" s="2">
+      <c r="W8">
         <v>4913.33333333333</v>
       </c>
-      <c r="X8" s="2">
+      <c r="X8">
         <v>4581</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Y8">
         <v>4501.33333333333</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="Z8">
         <v>4354.33333333333</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AA8">
         <v>4029.33333333333</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AB8">
         <v>3806.66666666667</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AC8">
         <v>3648.33333333333</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AD8">
         <v>3622.33333333333</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AE8">
         <v>3654.33333333333</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AF8">
         <v>3826.33333333333</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AG8">
         <v>4358.33333333333</v>
       </c>
-      <c r="AH8" s="2">
+      <c r="AH8">
         <v>4901</v>
       </c>
-      <c r="AI8" s="2">
+      <c r="AI8">
         <v>4935.33333333333</v>
       </c>
-      <c r="AJ8" s="2">
+      <c r="AJ8">
         <v>4934.66666666667</v>
       </c>
-      <c r="AK8" s="2">
+      <c r="AK8">
         <v>5015.33333333333</v>
       </c>
-      <c r="AL8" s="2">
+      <c r="AL8">
         <v>5039.33333333333</v>
       </c>
-      <c r="AM8" s="2">
+      <c r="AM8">
         <v>4842.66666666667</v>
       </c>
-      <c r="AN8" s="2">
+      <c r="AN8">
         <v>4746.66666666667</v>
       </c>
-      <c r="AO8" s="2">
+      <c r="AO8">
         <v>4682.66666666667</v>
       </c>
-      <c r="AP8" s="2">
+      <c r="AP8">
         <v>4714</v>
       </c>
-      <c r="AQ8" s="2">
+      <c r="AQ8">
         <v>4685</v>
       </c>
-      <c r="AR8" s="2">
+      <c r="AR8">
         <v>4746.33333333333</v>
       </c>
-      <c r="AS8" s="2">
+      <c r="AS8">
         <v>4774.66666666667</v>
       </c>
-      <c r="AT8" s="2">
+      <c r="AT8">
         <v>4919.33333333333</v>
       </c>
-      <c r="AU8" s="2">
+      <c r="AU8">
         <v>4921.66666666667</v>
       </c>
-      <c r="AV8" s="2">
+      <c r="AV8">
         <v>4618</v>
       </c>
-      <c r="AW8" s="2">
+      <c r="AW8">
         <v>4468.66666666667</v>
       </c>
-      <c r="AX8" s="2">
+      <c r="AX8">
         <v>4373.66666666667</v>
       </c>
-      <c r="AY8" s="2">
+      <c r="AY8">
         <v>4039.33333333333</v>
       </c>
-      <c r="AZ8" s="2">
+      <c r="AZ8">
         <v>3773.33333333333</v>
       </c>
-      <c r="BA8" s="2">
+      <c r="BA8">
         <v>3621.66666666667</v>
       </c>
-      <c r="BB8" s="2">
+      <c r="BB8">
         <v>3582</v>
       </c>
-      <c r="BC8" s="2">
+      <c r="BC8">
         <v>3553</v>
       </c>
-      <c r="BD8" s="2">
+      <c r="BD8">
         <v>3708</v>
       </c>
-      <c r="BE8" s="2">
+      <c r="BE8">
         <v>4107.33333333333</v>
       </c>
-      <c r="BF8" s="2">
+      <c r="BF8">
         <v>4548</v>
       </c>
-      <c r="BG8" s="2">
+      <c r="BG8">
         <v>4609.33333333333</v>
       </c>
-      <c r="BH8" s="2">
+      <c r="BH8">
         <v>4758</v>
       </c>
-      <c r="BI8" s="2">
+      <c r="BI8">
         <v>4812.66666666667</v>
       </c>
-      <c r="BJ8" s="2">
+      <c r="BJ8">
         <v>4828.33333333333</v>
       </c>
-      <c r="BK8" s="2">
+      <c r="BK8">
         <v>4658.33333333333</v>
       </c>
-      <c r="BL8" s="2">
+      <c r="BL8">
         <v>4697</v>
       </c>
-      <c r="BM8" s="2">
+      <c r="BM8">
         <v>4631</v>
       </c>
-      <c r="BN8" s="2">
+      <c r="BN8">
         <v>4614.33333333333</v>
       </c>
-      <c r="BO8" s="2">
+      <c r="BO8">
         <v>4697.33333333333</v>
       </c>
-      <c r="BP8" s="2">
+      <c r="BP8">
         <v>4781</v>
       </c>
-      <c r="BQ8" s="2">
+      <c r="BQ8">
         <v>4879.33333333333</v>
       </c>
-      <c r="BR8" s="2">
+      <c r="BR8">
         <v>5002</v>
       </c>
-      <c r="BS8" s="2">
+      <c r="BS8">
         <v>4904.33333333333</v>
       </c>
-      <c r="BT8" s="2">
+      <c r="BT8">
         <v>4554.66666666667</v>
       </c>
-      <c r="BU8" s="2">
+      <c r="BU8">
         <v>4517</v>
       </c>
-      <c r="BV8" s="2">
+      <c r="BV8">
         <v>4413.66666666667</v>
       </c>
-      <c r="BW8" s="2">
+      <c r="BW8">
         <v>4121</v>
       </c>
-      <c r="BX8" s="2">
+      <c r="BX8">
         <v>3881</v>
       </c>
-      <c r="BY8" s="2">
+      <c r="BY8">
         <v>3688</v>
       </c>
-      <c r="BZ8" s="2">
+      <c r="BZ8">
         <v>3682</v>
       </c>
-      <c r="CA8" s="2">
+      <c r="CA8">
         <v>3733.33333333333</v>
       </c>
-      <c r="CB8" s="2">
+      <c r="CB8">
         <v>3939</v>
       </c>
-      <c r="CC8" s="2">
+      <c r="CC8">
         <v>4357.33333333333</v>
       </c>
-      <c r="CD8" s="2">
+      <c r="CD8">
         <v>4855.33333333333</v>
       </c>
-      <c r="CE8" s="2">
+      <c r="CE8">
         <v>5000.66666666667</v>
       </c>
-      <c r="CF8" s="2">
+      <c r="CF8">
         <v>5118</v>
       </c>
-      <c r="CG8" s="2">
+      <c r="CG8">
         <v>5065.66666666667</v>
       </c>
-      <c r="CH8" s="2">
+      <c r="CH8">
         <v>4982.66666666667</v>
       </c>
-      <c r="CI8" s="2">
+      <c r="CI8">
         <v>4651.33333333333</v>
       </c>
-      <c r="CJ8" s="2">
+      <c r="CJ8">
         <v>4474.66666666667</v>
       </c>
-      <c r="CK8" s="2">
+      <c r="CK8">
         <v>4388.33333333333</v>
       </c>
-      <c r="CL8" s="2">
+      <c r="CL8">
         <v>4322</v>
       </c>
-      <c r="CM8" s="2">
+      <c r="CM8">
         <v>4413</v>
       </c>
-      <c r="CN8" s="2">
+      <c r="CN8">
         <v>4594.66666666667</v>
       </c>
-      <c r="CO8" s="2">
+      <c r="CO8">
         <v>4806.66666666667</v>
       </c>
-      <c r="CP8" s="2">
+      <c r="CP8">
         <v>4953.66666666667</v>
       </c>
-      <c r="CQ8" s="2">
+      <c r="CQ8">
         <v>4960.33333333333</v>
       </c>
-      <c r="CR8" s="2">
+      <c r="CR8">
         <v>4646</v>
       </c>
-      <c r="CS8" s="2">
+      <c r="CS8">
         <v>4592</v>
       </c>
-      <c r="CT8" s="2">
+      <c r="CT8">
         <v>4539.33333333333</v>
       </c>
-      <c r="CU8" s="2">
+      <c r="CU8">
         <v>4147.66666666667</v>
       </c>
-      <c r="CV8" s="2">
+      <c r="CV8">
         <v>3893</v>
       </c>
-      <c r="CW8" s="2">
+      <c r="CW8">
         <v>3711.66666666667</v>
       </c>
-      <c r="CX8" s="2">
+      <c r="CX8">
         <v>3677</v>
       </c>
-      <c r="CY8" s="2">
+      <c r="CY8">
         <v>3695.66666666667</v>
       </c>
-      <c r="CZ8" s="2">
+      <c r="CZ8">
         <v>3796</v>
       </c>
-      <c r="DA8" s="2">
+      <c r="DA8">
         <v>4258.33333333333</v>
       </c>
-      <c r="DB8" s="2">
+      <c r="DB8">
         <v>4738</v>
       </c>
-      <c r="DC8" s="2">
+      <c r="DC8">
         <v>4840.33333333333</v>
       </c>
-      <c r="DD8" s="2">
+      <c r="DD8">
         <v>5006.33333333333</v>
       </c>
-      <c r="DE8" s="2">
+      <c r="DE8">
         <v>5020.33333333333</v>
       </c>
-      <c r="DF8" s="2">
+      <c r="DF8">
         <v>5038.33333333333</v>
       </c>
-      <c r="DG8" s="2">
+      <c r="DG8">
         <v>4965.66666666667</v>
       </c>
-      <c r="DH8" s="2">
+      <c r="DH8">
         <v>4873.33333333333</v>
       </c>
-      <c r="DI8" s="2">
+      <c r="DI8">
         <v>4789.66666666667</v>
       </c>
-      <c r="DJ8" s="2">
+      <c r="DJ8">
         <v>4713.33333333333</v>
       </c>
-      <c r="DK8" s="2">
+      <c r="DK8">
         <v>4582</v>
       </c>
-      <c r="DL8" s="2">
+      <c r="DL8">
         <v>4667</v>
       </c>
-      <c r="DM8" s="2">
+      <c r="DM8">
         <v>4770.33333333333</v>
       </c>
-      <c r="DN8" s="2">
+      <c r="DN8">
         <v>4921.66666666667</v>
       </c>
-      <c r="DO8" s="2">
+      <c r="DO8">
         <v>4805.33333333333</v>
       </c>
-      <c r="DP8" s="2">
+      <c r="DP8">
         <v>4512</v>
       </c>
-      <c r="DQ8" s="2">
+      <c r="DQ8">
         <v>4564</v>
       </c>
-      <c r="DR8" s="2">
+      <c r="DR8">
         <v>4484.66666666667</v>
       </c>
-      <c r="DS8" s="2">
+      <c r="DS8">
         <v>4131.33333333333</v>
       </c>
-      <c r="DT8" s="2">
+      <c r="DT8">
         <v>3841.66666666667</v>
       </c>
-      <c r="DU8" s="2">
+      <c r="DU8">
         <v>3603</v>
       </c>
-      <c r="DV8" s="2">
+      <c r="DV8">
         <v>3475.66666666667</v>
       </c>
-      <c r="DW8" s="2">
+      <c r="DW8">
         <v>3435</v>
       </c>
-      <c r="DX8" s="2">
+      <c r="DX8">
         <v>3450.66666666667</v>
       </c>
-      <c r="DY8" s="2">
+      <c r="DY8">
         <v>3554</v>
       </c>
-      <c r="DZ8" s="2">
+      <c r="DZ8">
         <v>3751.66666666667</v>
       </c>
-      <c r="EA8" s="2">
+      <c r="EA8">
         <v>3906.66666666667</v>
       </c>
-      <c r="EB8" s="2">
+      <c r="EB8">
         <v>4199</v>
       </c>
-      <c r="EC8" s="2">
+      <c r="EC8">
         <v>4400.66666666667</v>
       </c>
-      <c r="ED8" s="2">
+      <c r="ED8">
         <v>4476.33333333333</v>
       </c>
-      <c r="EE8" s="2">
+      <c r="EE8">
         <v>4450</v>
       </c>
-      <c r="EF8" s="2">
+      <c r="EF8">
         <v>4386</v>
       </c>
-      <c r="EG8" s="2">
+      <c r="EG8">
         <v>4260.66666666667</v>
       </c>
-      <c r="EH8" s="2">
+      <c r="EH8">
         <v>4132.66666666667</v>
       </c>
-      <c r="EI8" s="2">
+      <c r="EI8">
         <v>4144.66666666667</v>
       </c>
-      <c r="EJ8" s="2">
+      <c r="EJ8">
         <v>4274</v>
       </c>
-      <c r="EK8" s="2">
+      <c r="EK8">
         <v>4403.66666666667</v>
       </c>
-      <c r="EL8" s="2">
+      <c r="EL8">
         <v>4574.66666666667</v>
       </c>
-      <c r="EM8" s="2">
+      <c r="EM8">
         <v>4520</v>
       </c>
-      <c r="EN8" s="2">
+      <c r="EN8">
         <v>4240.33333333333</v>
       </c>
-      <c r="EO8" s="2">
+      <c r="EO8">
         <v>4221</v>
       </c>
-      <c r="EP8" s="2">
+      <c r="EP8">
         <v>4176.66666666667</v>
       </c>
-      <c r="EQ8" s="2">
+      <c r="EQ8">
         <v>3930.33333333333</v>
       </c>
-      <c r="ER8" s="2">
+      <c r="ER8">
         <v>3689.33333333333</v>
       </c>
-      <c r="ES8" s="2">
+      <c r="ES8">
         <v>3559.66666666667</v>
       </c>
-      <c r="ET8" s="2">
+      <c r="ET8">
         <v>3462.66666666667</v>
       </c>
-      <c r="EU8" s="2">
+      <c r="EU8">
         <v>3433.33333333333</v>
       </c>
-      <c r="EV8" s="2">
+      <c r="EV8">
         <v>3443.66666666667</v>
       </c>
-      <c r="EW8" s="2">
+      <c r="EW8">
         <v>3543.66666666667</v>
       </c>
-      <c r="EX8" s="2">
+      <c r="EX8">
         <v>3552</v>
       </c>
-      <c r="EY8" s="2">
+      <c r="EY8">
         <v>3638.33333333333</v>
       </c>
-      <c r="EZ8" s="2">
+      <c r="EZ8">
         <v>3756.66666666667</v>
       </c>
-      <c r="FA8" s="2">
+      <c r="FA8">
         <v>3725.66666666667</v>
       </c>
-      <c r="FB8" s="2">
+      <c r="FB8">
         <v>3661</v>
       </c>
-      <c r="FC8" s="2">
+      <c r="FC8">
         <v>3698</v>
       </c>
-      <c r="FD8" s="2">
+      <c r="FD8">
         <v>3583.33333333333</v>
       </c>
-      <c r="FE8" s="2">
+      <c r="FE8">
         <v>3448.33333333333</v>
       </c>
-      <c r="FF8" s="2">
+      <c r="FF8">
         <v>3388.66666666667</v>
       </c>
-      <c r="FG8" s="2">
+      <c r="FG8">
         <v>3500.66666666667</v>
       </c>
-      <c r="FH8" s="2">
+      <c r="FH8">
         <v>3760.66666666667</v>
       </c>
-      <c r="FI8" s="2">
+      <c r="FI8">
         <v>4068</v>
       </c>
-      <c r="FJ8" s="2">
+      <c r="FJ8">
         <v>4454</v>
       </c>
-      <c r="FK8" s="2">
+      <c r="FK8">
         <v>4524.66666666667</v>
       </c>
-      <c r="FL8" s="2">
+      <c r="FL8">
         <v>4322</v>
       </c>
-      <c r="FM8" s="2">
+      <c r="FM8">
         <v>4174.33333333333</v>
       </c>
-      <c r="FN8" s="2">
+      <c r="FN8">
         <v>4151.33333333333</v>
       </c>
-      <c r="FO8" s="2">
+      <c r="FO8">
         <v>3890</v>
       </c>
-      <c r="FP8" s="2">
+      <c r="FP8">
         <v>3686</v>
       </c>
-      <c r="FQ8" s="2">
+      <c r="FQ8">
         <v>3570.33333333333</v>
       </c>
-      <c r="FR8" s="2">
+      <c r="FR8">
         <v>3469.66666666667</v>
       </c>
-      <c r="FS8" s="2">
+      <c r="FS8">
         <v>3523.66666666667</v>
       </c>
-      <c r="FT8" s="2">
+      <c r="FT8">
         <v>3740.33333333333</v>
       </c>
-      <c r="FU8" s="2">
+      <c r="FU8">
         <v>4283</v>
       </c>
-      <c r="FV8" s="2">
+      <c r="FV8">
         <v>4832</v>
       </c>
-      <c r="FW8" s="2">
+      <c r="FW8">
         <v>4861.66666666667</v>
       </c>
-      <c r="FX8" s="2">
+      <c r="FX8">
         <v>4951</v>
       </c>
-      <c r="FY8" s="2">
+      <c r="FY8">
         <v>4911</v>
       </c>
-      <c r="FZ8" s="2">
+      <c r="FZ8">
         <v>4896.33333333333</v>
       </c>
-      <c r="GA8" s="2">
+      <c r="GA8">
         <v>4721.66666666667</v>
       </c>
-      <c r="GB8" s="2">
+      <c r="GB8">
         <v>4627</v>
       </c>
-      <c r="GC8" s="2">
+      <c r="GC8">
         <v>4614.66666666667</v>
       </c>
-      <c r="GD8" s="2">
+      <c r="GD8">
         <v>4636.66666666667</v>
       </c>
-      <c r="GE8" s="2">
+      <c r="GE8">
         <v>4776</v>
       </c>
-      <c r="GF8" s="2">
+      <c r="GF8">
         <v>4911.66666666667</v>
       </c>
-      <c r="GG8" s="2">
+      <c r="GG8">
         <v>5015</v>
       </c>
-      <c r="GH8" s="2">
+      <c r="GH8">
         <v>5205.33333333333</v>
       </c>
-      <c r="GI8" s="2">
+      <c r="GI8">
         <v>5052.33333333333</v>
       </c>
-      <c r="GJ8" s="2">
+      <c r="GJ8">
         <v>4774</v>
       </c>
-      <c r="GK8" s="2">
+      <c r="GK8">
         <v>4774.66666666667</v>
       </c>
-      <c r="GL8" s="2">
+      <c r="GL8">
         <v>4704.66666666667</v>
       </c>
-      <c r="GM8" s="2">
+      <c r="GM8">
         <v>4321.33333333333</v>
       </c>
-      <c r="GN8" s="2">
+      <c r="GN8">
         <v>4071.66666666667</v>
       </c>
-      <c r="GO8" s="2">
+      <c r="GO8">
         <v>3914.33333333333</v>
       </c>
-      <c r="GP8" s="2">
+      <c r="GP8">
         <v>3791.33333333333</v>
       </c>
-      <c r="GQ8" s="2">
+      <c r="GQ8">
         <v>3809.33333333333</v>
       </c>
-      <c r="GR8" s="2">
+      <c r="GR8">
         <v>3976.66666666667</v>
       </c>
-      <c r="GS8" s="2">
+      <c r="GS8">
         <v>4460.33333333333</v>
       </c>
-      <c r="GT8" s="2">
+      <c r="GT8">
         <v>4989</v>
       </c>
-      <c r="GU8" s="2">
+      <c r="GU8">
         <v>4975</v>
       </c>
-      <c r="GV8" s="2">
+      <c r="GV8">
         <v>4920.66666666667</v>
       </c>
-      <c r="GW8" s="2">
+      <c r="GW8">
         <v>4765</v>
       </c>
-      <c r="GX8" s="2">
+      <c r="GX8">
         <v>4677.66666666667</v>
       </c>
-      <c r="GY8" s="2">
+      <c r="GY8">
         <v>4556.33333333333</v>
       </c>
-      <c r="GZ8" s="2">
+      <c r="GZ8">
         <v>4570.66666666667</v>
       </c>
-      <c r="HA8" s="2">
+      <c r="HA8">
         <v>4595</v>
       </c>
-      <c r="HB8" s="2">
+      <c r="HB8">
         <v>4641.33333333333</v>
       </c>
-      <c r="HC8" s="2">
+      <c r="HC8">
         <v>4668.66666666667</v>
       </c>
-      <c r="HD8" s="2">
+      <c r="HD8">
         <v>4844.66666666667</v>
       </c>
-      <c r="HE8" s="2">
+      <c r="HE8">
         <v>4966</v>
       </c>
-      <c r="HF8" s="2">
+      <c r="HF8">
         <v>5188.66666666667</v>
       </c>
-      <c r="HG8" s="2">
+      <c r="HG8">
         <v>5062.66666666667</v>
       </c>
-      <c r="HH8" s="2">
+      <c r="HH8">
         <v>4762.33333333333</v>
       </c>
-      <c r="HI8" s="2">
+      <c r="HI8">
         <v>4765</v>
       </c>
-      <c r="HJ8" s="2">
+      <c r="HJ8">
         <v>4646</v>
       </c>
     </row>
     <row r="9" spans="1:218">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="2">
-        <v>500</v>
-      </c>
-      <c r="D9" s="2">
-        <v>500</v>
-      </c>
-      <c r="E9" s="2">
-        <v>500</v>
-      </c>
-      <c r="F9" s="2">
-        <v>500</v>
-      </c>
-      <c r="G9" s="2">
-        <v>500</v>
-      </c>
-      <c r="H9" s="2">
-        <v>500</v>
-      </c>
-      <c r="I9" s="2">
-        <v>500</v>
-      </c>
-      <c r="J9" s="2">
-        <v>500</v>
-      </c>
-      <c r="K9" s="2">
-        <v>500</v>
-      </c>
-      <c r="L9" s="2">
-        <v>500</v>
-      </c>
-      <c r="M9" s="2">
-        <v>500</v>
-      </c>
-      <c r="N9" s="2">
-        <v>500</v>
-      </c>
-      <c r="O9" s="2">
-        <v>500</v>
-      </c>
-      <c r="P9" s="2">
-        <v>500</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>500</v>
-      </c>
-      <c r="R9" s="2">
-        <v>500</v>
-      </c>
-      <c r="S9" s="2">
-        <v>500</v>
-      </c>
-      <c r="T9" s="2">
-        <v>500</v>
-      </c>
-      <c r="U9" s="2">
-        <v>500</v>
-      </c>
-      <c r="V9" s="2">
-        <v>500</v>
-      </c>
-      <c r="W9" s="2">
-        <v>500</v>
-      </c>
-      <c r="X9" s="2">
-        <v>500</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>500</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>500</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>500</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>500</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>500</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>500</v>
-      </c>
-      <c r="AE9" s="2">
-        <v>500</v>
-      </c>
-      <c r="AF9" s="2">
-        <v>500</v>
-      </c>
-      <c r="AG9" s="2">
-        <v>500</v>
-      </c>
-      <c r="AH9" s="2">
-        <v>500</v>
-      </c>
-      <c r="AI9" s="2">
-        <v>500</v>
-      </c>
-      <c r="AJ9" s="2">
-        <v>500</v>
-      </c>
-      <c r="AK9" s="2">
-        <v>500</v>
-      </c>
-      <c r="AL9" s="2">
-        <v>500</v>
-      </c>
-      <c r="AM9" s="2">
-        <v>500</v>
-      </c>
-      <c r="AN9" s="2">
-        <v>500</v>
-      </c>
-      <c r="AO9" s="2">
-        <v>500</v>
-      </c>
-      <c r="AP9" s="2">
-        <v>500</v>
-      </c>
-      <c r="AQ9" s="2">
-        <v>500</v>
-      </c>
-      <c r="AR9" s="2">
-        <v>500</v>
-      </c>
-      <c r="AS9" s="2">
-        <v>500</v>
-      </c>
-      <c r="AT9" s="2">
-        <v>500</v>
-      </c>
-      <c r="AU9" s="2">
-        <v>500</v>
-      </c>
-      <c r="AV9" s="2">
-        <v>500</v>
-      </c>
-      <c r="AW9" s="2">
-        <v>500</v>
-      </c>
-      <c r="AX9" s="2">
-        <v>500</v>
-      </c>
-      <c r="AY9" s="2">
-        <v>500</v>
-      </c>
-      <c r="AZ9" s="2">
-        <v>500</v>
-      </c>
-      <c r="BA9" s="2">
-        <v>500</v>
-      </c>
-      <c r="BB9" s="2">
-        <v>500</v>
-      </c>
-      <c r="BC9" s="2">
-        <v>500</v>
-      </c>
-      <c r="BD9" s="2">
-        <v>500</v>
-      </c>
-      <c r="BE9" s="2">
-        <v>500</v>
-      </c>
-      <c r="BF9" s="2">
-        <v>500</v>
-      </c>
-      <c r="BG9" s="2">
-        <v>500</v>
-      </c>
-      <c r="BH9" s="2">
-        <v>500</v>
-      </c>
-      <c r="BI9" s="2">
-        <v>500</v>
-      </c>
-      <c r="BJ9" s="2">
-        <v>500</v>
-      </c>
-      <c r="BK9" s="2">
-        <v>500</v>
-      </c>
-      <c r="BL9" s="2">
-        <v>500</v>
-      </c>
-      <c r="BM9" s="2">
-        <v>500</v>
-      </c>
-      <c r="BN9" s="2">
-        <v>500</v>
-      </c>
-      <c r="BO9" s="2">
-        <v>500</v>
-      </c>
-      <c r="BP9" s="2">
-        <v>500</v>
-      </c>
-      <c r="BQ9" s="2">
-        <v>500</v>
-      </c>
-      <c r="BR9" s="2">
-        <v>500</v>
-      </c>
-      <c r="BS9" s="2">
-        <v>500</v>
-      </c>
-      <c r="BT9" s="2">
-        <v>500</v>
-      </c>
-      <c r="BU9" s="2">
-        <v>500</v>
-      </c>
-      <c r="BV9" s="2">
-        <v>500</v>
-      </c>
-      <c r="BW9" s="2">
-        <v>500</v>
-      </c>
-      <c r="BX9" s="2">
-        <v>500</v>
-      </c>
-      <c r="BY9" s="2">
-        <v>500</v>
-      </c>
-      <c r="BZ9" s="2">
-        <v>500</v>
-      </c>
-      <c r="CA9" s="2">
-        <v>500</v>
-      </c>
-      <c r="CB9" s="2">
-        <v>500</v>
-      </c>
-      <c r="CC9" s="2">
-        <v>500</v>
-      </c>
-      <c r="CD9" s="2">
-        <v>500</v>
-      </c>
-      <c r="CE9" s="2">
-        <v>500</v>
-      </c>
-      <c r="CF9" s="2">
-        <v>500</v>
-      </c>
-      <c r="CG9" s="2">
-        <v>500</v>
-      </c>
-      <c r="CH9" s="2">
-        <v>500</v>
-      </c>
-      <c r="CI9" s="2">
-        <v>500</v>
-      </c>
-      <c r="CJ9" s="2">
-        <v>500</v>
-      </c>
-      <c r="CK9" s="2">
-        <v>500</v>
-      </c>
-      <c r="CL9" s="2">
-        <v>500</v>
-      </c>
-      <c r="CM9" s="2">
-        <v>500</v>
-      </c>
-      <c r="CN9" s="2">
-        <v>500</v>
-      </c>
-      <c r="CO9" s="2">
-        <v>500</v>
-      </c>
-      <c r="CP9" s="2">
-        <v>500</v>
-      </c>
-      <c r="CQ9" s="2">
-        <v>500</v>
-      </c>
-      <c r="CR9" s="2">
-        <v>500</v>
-      </c>
-      <c r="CS9" s="2">
-        <v>500</v>
-      </c>
-      <c r="CT9" s="2">
-        <v>500</v>
-      </c>
-      <c r="CU9" s="2">
-        <v>500</v>
-      </c>
-      <c r="CV9" s="2">
-        <v>500</v>
-      </c>
-      <c r="CW9" s="2">
-        <v>500</v>
-      </c>
-      <c r="CX9" s="2">
-        <v>500</v>
-      </c>
-      <c r="CY9" s="2">
-        <v>500</v>
-      </c>
-      <c r="CZ9" s="2">
-        <v>500</v>
-      </c>
-      <c r="DA9" s="2">
-        <v>500</v>
-      </c>
-      <c r="DB9" s="2">
-        <v>500</v>
-      </c>
-      <c r="DC9" s="2">
-        <v>500</v>
-      </c>
-      <c r="DD9" s="2">
-        <v>500</v>
-      </c>
-      <c r="DE9" s="2">
-        <v>500</v>
-      </c>
-      <c r="DF9" s="2">
-        <v>500</v>
-      </c>
-      <c r="DG9" s="2">
-        <v>500</v>
-      </c>
-      <c r="DH9" s="2">
-        <v>500</v>
-      </c>
-      <c r="DI9" s="2">
-        <v>500</v>
-      </c>
-      <c r="DJ9" s="2">
-        <v>500</v>
-      </c>
-      <c r="DK9" s="2">
-        <v>500</v>
-      </c>
-      <c r="DL9" s="2">
-        <v>500</v>
-      </c>
-      <c r="DM9" s="2">
-        <v>500</v>
-      </c>
-      <c r="DN9" s="2">
-        <v>500</v>
-      </c>
-      <c r="DO9" s="2">
-        <v>500</v>
-      </c>
-      <c r="DP9" s="2">
-        <v>500</v>
-      </c>
-      <c r="DQ9" s="2">
-        <v>500</v>
-      </c>
-      <c r="DR9" s="2">
-        <v>500</v>
-      </c>
-      <c r="DS9" s="2">
-        <v>500</v>
-      </c>
-      <c r="DT9" s="2">
-        <v>500</v>
-      </c>
-      <c r="DU9" s="2">
-        <v>500</v>
-      </c>
-      <c r="DV9" s="2">
-        <v>500</v>
-      </c>
-      <c r="DW9" s="2">
-        <v>500</v>
-      </c>
-      <c r="DX9" s="2">
-        <v>500</v>
-      </c>
-      <c r="DY9" s="2">
-        <v>500</v>
-      </c>
-      <c r="DZ9" s="2">
-        <v>500</v>
-      </c>
-      <c r="EA9" s="2">
-        <v>500</v>
-      </c>
-      <c r="EB9" s="2">
-        <v>500</v>
-      </c>
-      <c r="EC9" s="2">
-        <v>500</v>
-      </c>
-      <c r="ED9" s="2">
-        <v>500</v>
-      </c>
-      <c r="EE9" s="2">
-        <v>500</v>
-      </c>
-      <c r="EF9" s="2">
-        <v>500</v>
-      </c>
-      <c r="EG9" s="2">
-        <v>500</v>
-      </c>
-      <c r="EH9" s="2">
-        <v>500</v>
-      </c>
-      <c r="EI9" s="2">
-        <v>500</v>
-      </c>
-      <c r="EJ9" s="2">
-        <v>500</v>
-      </c>
-      <c r="EK9" s="2">
-        <v>500</v>
-      </c>
-      <c r="EL9" s="2">
-        <v>500</v>
-      </c>
-      <c r="EM9" s="2">
-        <v>500</v>
-      </c>
-      <c r="EN9" s="2">
-        <v>500</v>
-      </c>
-      <c r="EO9" s="2">
-        <v>500</v>
-      </c>
-      <c r="EP9" s="2">
-        <v>500</v>
-      </c>
-      <c r="EQ9" s="2">
-        <v>500</v>
-      </c>
-      <c r="ER9" s="2">
-        <v>500</v>
-      </c>
-      <c r="ES9" s="2">
-        <v>500</v>
-      </c>
-      <c r="ET9" s="2">
-        <v>500</v>
-      </c>
-      <c r="EU9" s="2">
-        <v>500</v>
-      </c>
-      <c r="EV9" s="2">
-        <v>500</v>
-      </c>
-      <c r="EW9" s="2">
-        <v>500</v>
-      </c>
-      <c r="EX9" s="2">
-        <v>500</v>
-      </c>
-      <c r="EY9" s="2">
-        <v>500</v>
-      </c>
-      <c r="EZ9" s="2">
-        <v>500</v>
-      </c>
-      <c r="FA9" s="2">
-        <v>500</v>
-      </c>
-      <c r="FB9" s="2">
-        <v>500</v>
-      </c>
-      <c r="FC9" s="2">
-        <v>500</v>
-      </c>
-      <c r="FD9" s="2">
-        <v>500</v>
-      </c>
-      <c r="FE9" s="2">
-        <v>500</v>
-      </c>
-      <c r="FF9" s="2">
-        <v>500</v>
-      </c>
-      <c r="FG9" s="2">
-        <v>500</v>
-      </c>
-      <c r="FH9" s="2">
-        <v>500</v>
-      </c>
-      <c r="FI9" s="2">
-        <v>500</v>
-      </c>
-      <c r="FJ9" s="2">
-        <v>500</v>
-      </c>
-      <c r="FK9" s="2">
-        <v>500</v>
-      </c>
-      <c r="FL9" s="2">
-        <v>500</v>
-      </c>
-      <c r="FM9" s="2">
-        <v>500</v>
-      </c>
-      <c r="FN9" s="2">
-        <v>500</v>
-      </c>
-      <c r="FO9" s="2">
-        <v>500</v>
-      </c>
-      <c r="FP9" s="2">
-        <v>500</v>
-      </c>
-      <c r="FQ9" s="2">
-        <v>500</v>
-      </c>
-      <c r="FR9" s="2">
-        <v>500</v>
-      </c>
-      <c r="FS9" s="2">
-        <v>500</v>
-      </c>
-      <c r="FT9" s="2">
-        <v>500</v>
-      </c>
-      <c r="FU9" s="2">
-        <v>500</v>
-      </c>
-      <c r="FV9" s="2">
-        <v>500</v>
-      </c>
-      <c r="FW9" s="2">
-        <v>500</v>
-      </c>
-      <c r="FX9" s="2">
-        <v>500</v>
-      </c>
-      <c r="FY9" s="2">
-        <v>500</v>
-      </c>
-      <c r="FZ9" s="2">
-        <v>500</v>
-      </c>
-      <c r="GA9" s="2">
-        <v>500</v>
-      </c>
-      <c r="GB9" s="2">
-        <v>500</v>
-      </c>
-      <c r="GC9" s="2">
-        <v>500</v>
-      </c>
-      <c r="GD9" s="2">
-        <v>500</v>
-      </c>
-      <c r="GE9" s="2">
-        <v>500</v>
-      </c>
-      <c r="GF9" s="2">
-        <v>500</v>
-      </c>
-      <c r="GG9" s="2">
-        <v>500</v>
-      </c>
-      <c r="GH9" s="2">
-        <v>500</v>
-      </c>
-      <c r="GI9" s="2">
-        <v>500</v>
-      </c>
-      <c r="GJ9" s="2">
-        <v>500</v>
-      </c>
-      <c r="GK9" s="2">
-        <v>500</v>
-      </c>
-      <c r="GL9" s="2">
-        <v>500</v>
-      </c>
-      <c r="GM9" s="2">
-        <v>500</v>
-      </c>
-      <c r="GN9" s="2">
-        <v>500</v>
-      </c>
-      <c r="GO9" s="2">
-        <v>500</v>
-      </c>
-      <c r="GP9" s="2">
-        <v>500</v>
-      </c>
-      <c r="GQ9" s="2">
-        <v>500</v>
-      </c>
-      <c r="GR9" s="2">
-        <v>500</v>
-      </c>
-      <c r="GS9" s="2">
-        <v>500</v>
-      </c>
-      <c r="GT9" s="2">
-        <v>500</v>
-      </c>
-      <c r="GU9" s="2">
-        <v>500</v>
-      </c>
-      <c r="GV9" s="2">
-        <v>500</v>
-      </c>
-      <c r="GW9" s="2">
-        <v>500</v>
-      </c>
-      <c r="GX9" s="2">
-        <v>500</v>
-      </c>
-      <c r="GY9" s="2">
-        <v>500</v>
-      </c>
-      <c r="GZ9" s="2">
-        <v>500</v>
-      </c>
-      <c r="HA9" s="2">
-        <v>500</v>
-      </c>
-      <c r="HB9" s="2">
-        <v>500</v>
-      </c>
-      <c r="HC9" s="2">
-        <v>500</v>
-      </c>
-      <c r="HD9" s="2">
-        <v>500</v>
-      </c>
-      <c r="HE9" s="2">
-        <v>500</v>
-      </c>
-      <c r="HF9" s="2">
-        <v>500</v>
-      </c>
-      <c r="HG9" s="2">
-        <v>500</v>
-      </c>
-      <c r="HH9" s="2">
-        <v>500</v>
-      </c>
-      <c r="HI9" s="2">
-        <v>500</v>
-      </c>
-      <c r="HJ9" s="2">
+      <c r="C9">
+        <v>500</v>
+      </c>
+      <c r="D9">
+        <v>500</v>
+      </c>
+      <c r="E9">
+        <v>500</v>
+      </c>
+      <c r="F9">
+        <v>500</v>
+      </c>
+      <c r="G9">
+        <v>500</v>
+      </c>
+      <c r="H9">
+        <v>500</v>
+      </c>
+      <c r="I9">
+        <v>500</v>
+      </c>
+      <c r="J9">
+        <v>500</v>
+      </c>
+      <c r="K9">
+        <v>500</v>
+      </c>
+      <c r="L9">
+        <v>500</v>
+      </c>
+      <c r="M9">
+        <v>500</v>
+      </c>
+      <c r="N9">
+        <v>500</v>
+      </c>
+      <c r="O9">
+        <v>500</v>
+      </c>
+      <c r="P9">
+        <v>500</v>
+      </c>
+      <c r="Q9">
+        <v>500</v>
+      </c>
+      <c r="R9">
+        <v>500</v>
+      </c>
+      <c r="S9">
+        <v>500</v>
+      </c>
+      <c r="T9">
+        <v>500</v>
+      </c>
+      <c r="U9">
+        <v>500</v>
+      </c>
+      <c r="V9">
+        <v>500</v>
+      </c>
+      <c r="W9">
+        <v>500</v>
+      </c>
+      <c r="X9">
+        <v>500</v>
+      </c>
+      <c r="Y9">
+        <v>500</v>
+      </c>
+      <c r="Z9">
+        <v>500</v>
+      </c>
+      <c r="AA9">
+        <v>500</v>
+      </c>
+      <c r="AB9">
+        <v>500</v>
+      </c>
+      <c r="AC9">
+        <v>500</v>
+      </c>
+      <c r="AD9">
+        <v>500</v>
+      </c>
+      <c r="AE9">
+        <v>500</v>
+      </c>
+      <c r="AF9">
+        <v>500</v>
+      </c>
+      <c r="AG9">
+        <v>500</v>
+      </c>
+      <c r="AH9">
+        <v>500</v>
+      </c>
+      <c r="AI9">
+        <v>500</v>
+      </c>
+      <c r="AJ9">
+        <v>500</v>
+      </c>
+      <c r="AK9">
+        <v>500</v>
+      </c>
+      <c r="AL9">
+        <v>500</v>
+      </c>
+      <c r="AM9">
+        <v>500</v>
+      </c>
+      <c r="AN9">
+        <v>500</v>
+      </c>
+      <c r="AO9">
+        <v>500</v>
+      </c>
+      <c r="AP9">
+        <v>500</v>
+      </c>
+      <c r="AQ9">
+        <v>500</v>
+      </c>
+      <c r="AR9">
+        <v>500</v>
+      </c>
+      <c r="AS9">
+        <v>500</v>
+      </c>
+      <c r="AT9">
+        <v>500</v>
+      </c>
+      <c r="AU9">
+        <v>500</v>
+      </c>
+      <c r="AV9">
+        <v>500</v>
+      </c>
+      <c r="AW9">
+        <v>500</v>
+      </c>
+      <c r="AX9">
+        <v>500</v>
+      </c>
+      <c r="AY9">
+        <v>500</v>
+      </c>
+      <c r="AZ9">
+        <v>500</v>
+      </c>
+      <c r="BA9">
+        <v>500</v>
+      </c>
+      <c r="BB9">
+        <v>500</v>
+      </c>
+      <c r="BC9">
+        <v>500</v>
+      </c>
+      <c r="BD9">
+        <v>500</v>
+      </c>
+      <c r="BE9">
+        <v>500</v>
+      </c>
+      <c r="BF9">
+        <v>500</v>
+      </c>
+      <c r="BG9">
+        <v>500</v>
+      </c>
+      <c r="BH9">
+        <v>500</v>
+      </c>
+      <c r="BI9">
+        <v>500</v>
+      </c>
+      <c r="BJ9">
+        <v>500</v>
+      </c>
+      <c r="BK9">
+        <v>500</v>
+      </c>
+      <c r="BL9">
+        <v>500</v>
+      </c>
+      <c r="BM9">
+        <v>500</v>
+      </c>
+      <c r="BN9">
+        <v>500</v>
+      </c>
+      <c r="BO9">
+        <v>500</v>
+      </c>
+      <c r="BP9">
+        <v>500</v>
+      </c>
+      <c r="BQ9">
+        <v>500</v>
+      </c>
+      <c r="BR9">
+        <v>500</v>
+      </c>
+      <c r="BS9">
+        <v>500</v>
+      </c>
+      <c r="BT9">
+        <v>500</v>
+      </c>
+      <c r="BU9">
+        <v>500</v>
+      </c>
+      <c r="BV9">
+        <v>500</v>
+      </c>
+      <c r="BW9">
+        <v>500</v>
+      </c>
+      <c r="BX9">
+        <v>500</v>
+      </c>
+      <c r="BY9">
+        <v>500</v>
+      </c>
+      <c r="BZ9">
+        <v>500</v>
+      </c>
+      <c r="CA9">
+        <v>500</v>
+      </c>
+      <c r="CB9">
+        <v>500</v>
+      </c>
+      <c r="CC9">
+        <v>500</v>
+      </c>
+      <c r="CD9">
+        <v>500</v>
+      </c>
+      <c r="CE9">
+        <v>500</v>
+      </c>
+      <c r="CF9">
+        <v>500</v>
+      </c>
+      <c r="CG9">
+        <v>500</v>
+      </c>
+      <c r="CH9">
+        <v>500</v>
+      </c>
+      <c r="CI9">
+        <v>500</v>
+      </c>
+      <c r="CJ9">
+        <v>500</v>
+      </c>
+      <c r="CK9">
+        <v>500</v>
+      </c>
+      <c r="CL9">
+        <v>500</v>
+      </c>
+      <c r="CM9">
+        <v>500</v>
+      </c>
+      <c r="CN9">
+        <v>500</v>
+      </c>
+      <c r="CO9">
+        <v>500</v>
+      </c>
+      <c r="CP9">
+        <v>500</v>
+      </c>
+      <c r="CQ9">
+        <v>500</v>
+      </c>
+      <c r="CR9">
+        <v>500</v>
+      </c>
+      <c r="CS9">
+        <v>500</v>
+      </c>
+      <c r="CT9">
+        <v>500</v>
+      </c>
+      <c r="CU9">
+        <v>500</v>
+      </c>
+      <c r="CV9">
+        <v>500</v>
+      </c>
+      <c r="CW9">
+        <v>500</v>
+      </c>
+      <c r="CX9">
+        <v>500</v>
+      </c>
+      <c r="CY9">
+        <v>500</v>
+      </c>
+      <c r="CZ9">
+        <v>500</v>
+      </c>
+      <c r="DA9">
+        <v>500</v>
+      </c>
+      <c r="DB9">
+        <v>500</v>
+      </c>
+      <c r="DC9">
+        <v>500</v>
+      </c>
+      <c r="DD9">
+        <v>500</v>
+      </c>
+      <c r="DE9">
+        <v>500</v>
+      </c>
+      <c r="DF9">
+        <v>500</v>
+      </c>
+      <c r="DG9">
+        <v>500</v>
+      </c>
+      <c r="DH9">
+        <v>500</v>
+      </c>
+      <c r="DI9">
+        <v>500</v>
+      </c>
+      <c r="DJ9">
+        <v>500</v>
+      </c>
+      <c r="DK9">
+        <v>500</v>
+      </c>
+      <c r="DL9">
+        <v>500</v>
+      </c>
+      <c r="DM9">
+        <v>500</v>
+      </c>
+      <c r="DN9">
+        <v>500</v>
+      </c>
+      <c r="DO9">
+        <v>500</v>
+      </c>
+      <c r="DP9">
+        <v>500</v>
+      </c>
+      <c r="DQ9">
+        <v>500</v>
+      </c>
+      <c r="DR9">
+        <v>500</v>
+      </c>
+      <c r="DS9">
+        <v>500</v>
+      </c>
+      <c r="DT9">
+        <v>500</v>
+      </c>
+      <c r="DU9">
+        <v>500</v>
+      </c>
+      <c r="DV9">
+        <v>500</v>
+      </c>
+      <c r="DW9">
+        <v>500</v>
+      </c>
+      <c r="DX9">
+        <v>500</v>
+      </c>
+      <c r="DY9">
+        <v>500</v>
+      </c>
+      <c r="DZ9">
+        <v>500</v>
+      </c>
+      <c r="EA9">
+        <v>500</v>
+      </c>
+      <c r="EB9">
+        <v>500</v>
+      </c>
+      <c r="EC9">
+        <v>500</v>
+      </c>
+      <c r="ED9">
+        <v>500</v>
+      </c>
+      <c r="EE9">
+        <v>500</v>
+      </c>
+      <c r="EF9">
+        <v>500</v>
+      </c>
+      <c r="EG9">
+        <v>500</v>
+      </c>
+      <c r="EH9">
+        <v>500</v>
+      </c>
+      <c r="EI9">
+        <v>500</v>
+      </c>
+      <c r="EJ9">
+        <v>500</v>
+      </c>
+      <c r="EK9">
+        <v>500</v>
+      </c>
+      <c r="EL9">
+        <v>500</v>
+      </c>
+      <c r="EM9">
+        <v>500</v>
+      </c>
+      <c r="EN9">
+        <v>500</v>
+      </c>
+      <c r="EO9">
+        <v>500</v>
+      </c>
+      <c r="EP9">
+        <v>500</v>
+      </c>
+      <c r="EQ9">
+        <v>500</v>
+      </c>
+      <c r="ER9">
+        <v>500</v>
+      </c>
+      <c r="ES9">
+        <v>500</v>
+      </c>
+      <c r="ET9">
+        <v>500</v>
+      </c>
+      <c r="EU9">
+        <v>500</v>
+      </c>
+      <c r="EV9">
+        <v>500</v>
+      </c>
+      <c r="EW9">
+        <v>500</v>
+      </c>
+      <c r="EX9">
+        <v>500</v>
+      </c>
+      <c r="EY9">
+        <v>500</v>
+      </c>
+      <c r="EZ9">
+        <v>500</v>
+      </c>
+      <c r="FA9">
+        <v>500</v>
+      </c>
+      <c r="FB9">
+        <v>500</v>
+      </c>
+      <c r="FC9">
+        <v>500</v>
+      </c>
+      <c r="FD9">
+        <v>500</v>
+      </c>
+      <c r="FE9">
+        <v>500</v>
+      </c>
+      <c r="FF9">
+        <v>500</v>
+      </c>
+      <c r="FG9">
+        <v>500</v>
+      </c>
+      <c r="FH9">
+        <v>500</v>
+      </c>
+      <c r="FI9">
+        <v>500</v>
+      </c>
+      <c r="FJ9">
+        <v>500</v>
+      </c>
+      <c r="FK9">
+        <v>500</v>
+      </c>
+      <c r="FL9">
+        <v>500</v>
+      </c>
+      <c r="FM9">
+        <v>500</v>
+      </c>
+      <c r="FN9">
+        <v>500</v>
+      </c>
+      <c r="FO9">
+        <v>500</v>
+      </c>
+      <c r="FP9">
+        <v>500</v>
+      </c>
+      <c r="FQ9">
+        <v>500</v>
+      </c>
+      <c r="FR9">
+        <v>500</v>
+      </c>
+      <c r="FS9">
+        <v>500</v>
+      </c>
+      <c r="FT9">
+        <v>500</v>
+      </c>
+      <c r="FU9">
+        <v>500</v>
+      </c>
+      <c r="FV9">
+        <v>500</v>
+      </c>
+      <c r="FW9">
+        <v>500</v>
+      </c>
+      <c r="FX9">
+        <v>500</v>
+      </c>
+      <c r="FY9">
+        <v>500</v>
+      </c>
+      <c r="FZ9">
+        <v>500</v>
+      </c>
+      <c r="GA9">
+        <v>500</v>
+      </c>
+      <c r="GB9">
+        <v>500</v>
+      </c>
+      <c r="GC9">
+        <v>500</v>
+      </c>
+      <c r="GD9">
+        <v>500</v>
+      </c>
+      <c r="GE9">
+        <v>500</v>
+      </c>
+      <c r="GF9">
+        <v>500</v>
+      </c>
+      <c r="GG9">
+        <v>500</v>
+      </c>
+      <c r="GH9">
+        <v>500</v>
+      </c>
+      <c r="GI9">
+        <v>500</v>
+      </c>
+      <c r="GJ9">
+        <v>500</v>
+      </c>
+      <c r="GK9">
+        <v>500</v>
+      </c>
+      <c r="GL9">
+        <v>500</v>
+      </c>
+      <c r="GM9">
+        <v>500</v>
+      </c>
+      <c r="GN9">
+        <v>500</v>
+      </c>
+      <c r="GO9">
+        <v>500</v>
+      </c>
+      <c r="GP9">
+        <v>500</v>
+      </c>
+      <c r="GQ9">
+        <v>500</v>
+      </c>
+      <c r="GR9">
+        <v>500</v>
+      </c>
+      <c r="GS9">
+        <v>500</v>
+      </c>
+      <c r="GT9">
+        <v>500</v>
+      </c>
+      <c r="GU9">
+        <v>500</v>
+      </c>
+      <c r="GV9">
+        <v>500</v>
+      </c>
+      <c r="GW9">
+        <v>500</v>
+      </c>
+      <c r="GX9">
+        <v>500</v>
+      </c>
+      <c r="GY9">
+        <v>500</v>
+      </c>
+      <c r="GZ9">
+        <v>500</v>
+      </c>
+      <c r="HA9">
+        <v>500</v>
+      </c>
+      <c r="HB9">
+        <v>500</v>
+      </c>
+      <c r="HC9">
+        <v>500</v>
+      </c>
+      <c r="HD9">
+        <v>500</v>
+      </c>
+      <c r="HE9">
+        <v>500</v>
+      </c>
+      <c r="HF9">
+        <v>500</v>
+      </c>
+      <c r="HG9">
+        <v>500</v>
+      </c>
+      <c r="HH9">
+        <v>500</v>
+      </c>
+      <c r="HI9">
+        <v>500</v>
+      </c>
+      <c r="HJ9">
         <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:218">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="2">
-        <v>500</v>
-      </c>
-      <c r="D10" s="2">
-        <v>500</v>
-      </c>
-      <c r="E10" s="2">
-        <v>500</v>
-      </c>
-      <c r="F10" s="2">
-        <v>500</v>
-      </c>
-      <c r="G10" s="2">
-        <v>500</v>
-      </c>
-      <c r="H10" s="2">
-        <v>500</v>
-      </c>
-      <c r="I10" s="2">
-        <v>500</v>
-      </c>
-      <c r="J10" s="2">
-        <v>500</v>
-      </c>
-      <c r="K10" s="2">
-        <v>500</v>
-      </c>
-      <c r="L10" s="2">
-        <v>500</v>
-      </c>
-      <c r="M10" s="2">
-        <v>500</v>
-      </c>
-      <c r="N10" s="2">
-        <v>500</v>
-      </c>
-      <c r="O10" s="2">
-        <v>500</v>
-      </c>
-      <c r="P10" s="2">
-        <v>500</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>500</v>
-      </c>
-      <c r="R10" s="2">
-        <v>500</v>
-      </c>
-      <c r="S10" s="2">
-        <v>500</v>
-      </c>
-      <c r="T10" s="2">
-        <v>500</v>
-      </c>
-      <c r="U10" s="2">
-        <v>500</v>
-      </c>
-      <c r="V10" s="2">
-        <v>500</v>
-      </c>
-      <c r="W10" s="2">
-        <v>500</v>
-      </c>
-      <c r="X10" s="2">
-        <v>500</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>500</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>500</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>500</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>500</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>500</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>500</v>
-      </c>
-      <c r="AE10" s="2">
-        <v>500</v>
-      </c>
-      <c r="AF10" s="2">
-        <v>500</v>
-      </c>
-      <c r="AG10" s="2">
-        <v>500</v>
-      </c>
-      <c r="AH10" s="2">
-        <v>500</v>
-      </c>
-      <c r="AI10" s="2">
-        <v>500</v>
-      </c>
-      <c r="AJ10" s="2">
-        <v>500</v>
-      </c>
-      <c r="AK10" s="2">
-        <v>500</v>
-      </c>
-      <c r="AL10" s="2">
-        <v>500</v>
-      </c>
-      <c r="AM10" s="2">
-        <v>500</v>
-      </c>
-      <c r="AN10" s="2">
-        <v>500</v>
-      </c>
-      <c r="AO10" s="2">
-        <v>500</v>
-      </c>
-      <c r="AP10" s="2">
-        <v>500</v>
-      </c>
-      <c r="AQ10" s="2">
-        <v>500</v>
-      </c>
-      <c r="AR10" s="2">
-        <v>500</v>
-      </c>
-      <c r="AS10" s="2">
-        <v>500</v>
-      </c>
-      <c r="AT10" s="2">
-        <v>500</v>
-      </c>
-      <c r="AU10" s="2">
-        <v>500</v>
-      </c>
-      <c r="AV10" s="2">
-        <v>500</v>
-      </c>
-      <c r="AW10" s="2">
-        <v>500</v>
-      </c>
-      <c r="AX10" s="2">
-        <v>500</v>
-      </c>
-      <c r="AY10" s="2">
-        <v>500</v>
-      </c>
-      <c r="AZ10" s="2">
-        <v>500</v>
-      </c>
-      <c r="BA10" s="2">
-        <v>500</v>
-      </c>
-      <c r="BB10" s="2">
-        <v>500</v>
-      </c>
-      <c r="BC10" s="2">
-        <v>500</v>
-      </c>
-      <c r="BD10" s="2">
-        <v>500</v>
-      </c>
-      <c r="BE10" s="2">
-        <v>500</v>
-      </c>
-      <c r="BF10" s="2">
-        <v>500</v>
-      </c>
-      <c r="BG10" s="2">
-        <v>500</v>
-      </c>
-      <c r="BH10" s="2">
-        <v>500</v>
-      </c>
-      <c r="BI10" s="2">
-        <v>500</v>
-      </c>
-      <c r="BJ10" s="2">
-        <v>500</v>
-      </c>
-      <c r="BK10" s="2">
-        <v>500</v>
-      </c>
-      <c r="BL10" s="2">
-        <v>500</v>
-      </c>
-      <c r="BM10" s="2">
-        <v>500</v>
-      </c>
-      <c r="BN10" s="2">
-        <v>500</v>
-      </c>
-      <c r="BO10" s="2">
-        <v>500</v>
-      </c>
-      <c r="BP10" s="2">
-        <v>500</v>
-      </c>
-      <c r="BQ10" s="2">
-        <v>500</v>
-      </c>
-      <c r="BR10" s="2">
-        <v>500</v>
-      </c>
-      <c r="BS10" s="2">
-        <v>500</v>
-      </c>
-      <c r="BT10" s="2">
-        <v>500</v>
-      </c>
-      <c r="BU10" s="2">
-        <v>500</v>
-      </c>
-      <c r="BV10" s="2">
-        <v>500</v>
-      </c>
-      <c r="BW10" s="2">
-        <v>500</v>
-      </c>
-      <c r="BX10" s="2">
-        <v>500</v>
-      </c>
-      <c r="BY10" s="2">
-        <v>500</v>
-      </c>
-      <c r="BZ10" s="2">
-        <v>500</v>
-      </c>
-      <c r="CA10" s="2">
-        <v>500</v>
-      </c>
-      <c r="CB10" s="2">
-        <v>500</v>
-      </c>
-      <c r="CC10" s="2">
-        <v>500</v>
-      </c>
-      <c r="CD10" s="2">
-        <v>500</v>
-      </c>
-      <c r="CE10" s="2">
-        <v>500</v>
-      </c>
-      <c r="CF10" s="2">
-        <v>500</v>
-      </c>
-      <c r="CG10" s="2">
-        <v>500</v>
-      </c>
-      <c r="CH10" s="2">
-        <v>500</v>
-      </c>
-      <c r="CI10" s="2">
-        <v>500</v>
-      </c>
-      <c r="CJ10" s="2">
-        <v>500</v>
-      </c>
-      <c r="CK10" s="2">
-        <v>500</v>
-      </c>
-      <c r="CL10" s="2">
-        <v>500</v>
-      </c>
-      <c r="CM10" s="2">
-        <v>500</v>
-      </c>
-      <c r="CN10" s="2">
-        <v>500</v>
-      </c>
-      <c r="CO10" s="2">
-        <v>500</v>
-      </c>
-      <c r="CP10" s="2">
-        <v>500</v>
-      </c>
-      <c r="CQ10" s="2">
-        <v>500</v>
-      </c>
-      <c r="CR10" s="2">
-        <v>500</v>
-      </c>
-      <c r="CS10" s="2">
-        <v>500</v>
-      </c>
-      <c r="CT10" s="2">
-        <v>500</v>
-      </c>
-      <c r="CU10" s="2">
-        <v>500</v>
-      </c>
-      <c r="CV10" s="2">
-        <v>500</v>
-      </c>
-      <c r="CW10" s="2">
-        <v>500</v>
-      </c>
-      <c r="CX10" s="2">
-        <v>500</v>
-      </c>
-      <c r="CY10" s="2">
-        <v>500</v>
-      </c>
-      <c r="CZ10" s="2">
-        <v>500</v>
-      </c>
-      <c r="DA10" s="2">
-        <v>500</v>
-      </c>
-      <c r="DB10" s="2">
-        <v>500</v>
-      </c>
-      <c r="DC10" s="2">
-        <v>500</v>
-      </c>
-      <c r="DD10" s="2">
-        <v>500</v>
-      </c>
-      <c r="DE10" s="2">
-        <v>500</v>
-      </c>
-      <c r="DF10" s="2">
-        <v>500</v>
-      </c>
-      <c r="DG10" s="2">
-        <v>500</v>
-      </c>
-      <c r="DH10" s="2">
-        <v>500</v>
-      </c>
-      <c r="DI10" s="2">
-        <v>500</v>
-      </c>
-      <c r="DJ10" s="2">
-        <v>500</v>
-      </c>
-      <c r="DK10" s="2">
-        <v>500</v>
-      </c>
-      <c r="DL10" s="2">
-        <v>500</v>
-      </c>
-      <c r="DM10" s="2">
-        <v>500</v>
-      </c>
-      <c r="DN10" s="2">
-        <v>500</v>
-      </c>
-      <c r="DO10" s="2">
-        <v>500</v>
-      </c>
-      <c r="DP10" s="2">
-        <v>500</v>
-      </c>
-      <c r="DQ10" s="2">
-        <v>500</v>
-      </c>
-      <c r="DR10" s="2">
-        <v>500</v>
-      </c>
-      <c r="DS10" s="2">
-        <v>500</v>
-      </c>
-      <c r="DT10" s="2">
-        <v>500</v>
-      </c>
-      <c r="DU10" s="2">
-        <v>500</v>
-      </c>
-      <c r="DV10" s="2">
-        <v>500</v>
-      </c>
-      <c r="DW10" s="2">
-        <v>500</v>
-      </c>
-      <c r="DX10" s="2">
-        <v>500</v>
-      </c>
-      <c r="DY10" s="2">
-        <v>500</v>
-      </c>
-      <c r="DZ10" s="2">
-        <v>500</v>
-      </c>
-      <c r="EA10" s="2">
-        <v>500</v>
-      </c>
-      <c r="EB10" s="2">
-        <v>500</v>
-      </c>
-      <c r="EC10" s="2">
-        <v>500</v>
-      </c>
-      <c r="ED10" s="2">
-        <v>500</v>
-      </c>
-      <c r="EE10" s="2">
-        <v>500</v>
-      </c>
-      <c r="EF10" s="2">
-        <v>500</v>
-      </c>
-      <c r="EG10" s="2">
-        <v>500</v>
-      </c>
-      <c r="EH10" s="2">
-        <v>500</v>
-      </c>
-      <c r="EI10" s="2">
-        <v>500</v>
-      </c>
-      <c r="EJ10" s="2">
-        <v>500</v>
-      </c>
-      <c r="EK10" s="2">
-        <v>500</v>
-      </c>
-      <c r="EL10" s="2">
-        <v>500</v>
-      </c>
-      <c r="EM10" s="2">
-        <v>500</v>
-      </c>
-      <c r="EN10" s="2">
-        <v>500</v>
-      </c>
-      <c r="EO10" s="2">
-        <v>500</v>
-      </c>
-      <c r="EP10" s="2">
-        <v>500</v>
-      </c>
-      <c r="EQ10" s="2">
-        <v>500</v>
-      </c>
-      <c r="ER10" s="2">
-        <v>500</v>
-      </c>
-      <c r="ES10" s="2">
-        <v>500</v>
-      </c>
-      <c r="ET10" s="2">
-        <v>500</v>
-      </c>
-      <c r="EU10" s="2">
-        <v>500</v>
-      </c>
-      <c r="EV10" s="2">
-        <v>500</v>
-      </c>
-      <c r="EW10" s="2">
-        <v>500</v>
-      </c>
-      <c r="EX10" s="2">
-        <v>500</v>
-      </c>
-      <c r="EY10" s="2">
-        <v>500</v>
-      </c>
-      <c r="EZ10" s="2">
-        <v>500</v>
-      </c>
-      <c r="FA10" s="2">
-        <v>500</v>
-      </c>
-      <c r="FB10" s="2">
-        <v>500</v>
-      </c>
-      <c r="FC10" s="2">
-        <v>500</v>
-      </c>
-      <c r="FD10" s="2">
-        <v>500</v>
-      </c>
-      <c r="FE10" s="2">
-        <v>500</v>
-      </c>
-      <c r="FF10" s="2">
-        <v>500</v>
-      </c>
-      <c r="FG10" s="2">
-        <v>500</v>
-      </c>
-      <c r="FH10" s="2">
-        <v>500</v>
-      </c>
-      <c r="FI10" s="2">
-        <v>500</v>
-      </c>
-      <c r="FJ10" s="2">
-        <v>500</v>
-      </c>
-      <c r="FK10" s="2">
-        <v>500</v>
-      </c>
-      <c r="FL10" s="2">
-        <v>500</v>
-      </c>
-      <c r="FM10" s="2">
-        <v>500</v>
-      </c>
-      <c r="FN10" s="2">
-        <v>500</v>
-      </c>
-      <c r="FO10" s="2">
-        <v>500</v>
-      </c>
-      <c r="FP10" s="2">
-        <v>500</v>
-      </c>
-      <c r="FQ10" s="2">
-        <v>500</v>
-      </c>
-      <c r="FR10" s="2">
-        <v>500</v>
-      </c>
-      <c r="FS10" s="2">
-        <v>500</v>
-      </c>
-      <c r="FT10" s="2">
-        <v>500</v>
-      </c>
-      <c r="FU10" s="2">
-        <v>500</v>
-      </c>
-      <c r="FV10" s="2">
-        <v>500</v>
-      </c>
-      <c r="FW10" s="2">
-        <v>500</v>
-      </c>
-      <c r="FX10" s="2">
-        <v>500</v>
-      </c>
-      <c r="FY10" s="2">
-        <v>500</v>
-      </c>
-      <c r="FZ10" s="2">
-        <v>500</v>
-      </c>
-      <c r="GA10" s="2">
-        <v>500</v>
-      </c>
-      <c r="GB10" s="2">
-        <v>500</v>
-      </c>
-      <c r="GC10" s="2">
-        <v>500</v>
-      </c>
-      <c r="GD10" s="2">
-        <v>500</v>
-      </c>
-      <c r="GE10" s="2">
-        <v>500</v>
-      </c>
-      <c r="GF10" s="2">
-        <v>500</v>
-      </c>
-      <c r="GG10" s="2">
-        <v>500</v>
-      </c>
-      <c r="GH10" s="2">
-        <v>500</v>
-      </c>
-      <c r="GI10" s="2">
-        <v>500</v>
-      </c>
-      <c r="GJ10" s="2">
-        <v>500</v>
-      </c>
-      <c r="GK10" s="2">
-        <v>500</v>
-      </c>
-      <c r="GL10" s="2">
-        <v>500</v>
-      </c>
-      <c r="GM10" s="2">
-        <v>500</v>
-      </c>
-      <c r="GN10" s="2">
-        <v>500</v>
-      </c>
-      <c r="GO10" s="2">
-        <v>500</v>
-      </c>
-      <c r="GP10" s="2">
-        <v>500</v>
-      </c>
-      <c r="GQ10" s="2">
-        <v>500</v>
-      </c>
-      <c r="GR10" s="2">
-        <v>500</v>
-      </c>
-      <c r="GS10" s="2">
-        <v>500</v>
-      </c>
-      <c r="GT10" s="2">
-        <v>500</v>
-      </c>
-      <c r="GU10" s="2">
-        <v>500</v>
-      </c>
-      <c r="GV10" s="2">
-        <v>500</v>
-      </c>
-      <c r="GW10" s="2">
-        <v>500</v>
-      </c>
-      <c r="GX10" s="2">
-        <v>500</v>
-      </c>
-      <c r="GY10" s="2">
-        <v>500</v>
-      </c>
-      <c r="GZ10" s="2">
-        <v>500</v>
-      </c>
-      <c r="HA10" s="2">
-        <v>500</v>
-      </c>
-      <c r="HB10" s="2">
-        <v>500</v>
-      </c>
-      <c r="HC10" s="2">
-        <v>500</v>
-      </c>
-      <c r="HD10" s="2">
-        <v>500</v>
-      </c>
-      <c r="HE10" s="2">
-        <v>500</v>
-      </c>
-      <c r="HF10" s="2">
-        <v>500</v>
-      </c>
-      <c r="HG10" s="2">
-        <v>500</v>
-      </c>
-      <c r="HH10" s="2">
-        <v>500</v>
-      </c>
-      <c r="HI10" s="2">
-        <v>500</v>
-      </c>
-      <c r="HJ10" s="2">
+      <c r="C10">
+        <v>500</v>
+      </c>
+      <c r="D10">
+        <v>500</v>
+      </c>
+      <c r="E10">
+        <v>500</v>
+      </c>
+      <c r="F10">
+        <v>500</v>
+      </c>
+      <c r="G10">
+        <v>500</v>
+      </c>
+      <c r="H10">
+        <v>500</v>
+      </c>
+      <c r="I10">
+        <v>500</v>
+      </c>
+      <c r="J10">
+        <v>500</v>
+      </c>
+      <c r="K10">
+        <v>500</v>
+      </c>
+      <c r="L10">
+        <v>500</v>
+      </c>
+      <c r="M10">
+        <v>500</v>
+      </c>
+      <c r="N10">
+        <v>500</v>
+      </c>
+      <c r="O10">
+        <v>500</v>
+      </c>
+      <c r="P10">
+        <v>500</v>
+      </c>
+      <c r="Q10">
+        <v>500</v>
+      </c>
+      <c r="R10">
+        <v>500</v>
+      </c>
+      <c r="S10">
+        <v>500</v>
+      </c>
+      <c r="T10">
+        <v>500</v>
+      </c>
+      <c r="U10">
+        <v>500</v>
+      </c>
+      <c r="V10">
+        <v>500</v>
+      </c>
+      <c r="W10">
+        <v>500</v>
+      </c>
+      <c r="X10">
+        <v>500</v>
+      </c>
+      <c r="Y10">
+        <v>500</v>
+      </c>
+      <c r="Z10">
+        <v>500</v>
+      </c>
+      <c r="AA10">
+        <v>500</v>
+      </c>
+      <c r="AB10">
+        <v>500</v>
+      </c>
+      <c r="AC10">
+        <v>500</v>
+      </c>
+      <c r="AD10">
+        <v>500</v>
+      </c>
+      <c r="AE10">
+        <v>500</v>
+      </c>
+      <c r="AF10">
+        <v>500</v>
+      </c>
+      <c r="AG10">
+        <v>500</v>
+      </c>
+      <c r="AH10">
+        <v>500</v>
+      </c>
+      <c r="AI10">
+        <v>500</v>
+      </c>
+      <c r="AJ10">
+        <v>500</v>
+      </c>
+      <c r="AK10">
+        <v>500</v>
+      </c>
+      <c r="AL10">
+        <v>500</v>
+      </c>
+      <c r="AM10">
+        <v>500</v>
+      </c>
+      <c r="AN10">
+        <v>500</v>
+      </c>
+      <c r="AO10">
+        <v>500</v>
+      </c>
+      <c r="AP10">
+        <v>500</v>
+      </c>
+      <c r="AQ10">
+        <v>500</v>
+      </c>
+      <c r="AR10">
+        <v>500</v>
+      </c>
+      <c r="AS10">
+        <v>500</v>
+      </c>
+      <c r="AT10">
+        <v>500</v>
+      </c>
+      <c r="AU10">
+        <v>500</v>
+      </c>
+      <c r="AV10">
+        <v>500</v>
+      </c>
+      <c r="AW10">
+        <v>500</v>
+      </c>
+      <c r="AX10">
+        <v>500</v>
+      </c>
+      <c r="AY10">
+        <v>500</v>
+      </c>
+      <c r="AZ10">
+        <v>500</v>
+      </c>
+      <c r="BA10">
+        <v>500</v>
+      </c>
+      <c r="BB10">
+        <v>500</v>
+      </c>
+      <c r="BC10">
+        <v>500</v>
+      </c>
+      <c r="BD10">
+        <v>500</v>
+      </c>
+      <c r="BE10">
+        <v>500</v>
+      </c>
+      <c r="BF10">
+        <v>500</v>
+      </c>
+      <c r="BG10">
+        <v>500</v>
+      </c>
+      <c r="BH10">
+        <v>500</v>
+      </c>
+      <c r="BI10">
+        <v>500</v>
+      </c>
+      <c r="BJ10">
+        <v>500</v>
+      </c>
+      <c r="BK10">
+        <v>500</v>
+      </c>
+      <c r="BL10">
+        <v>500</v>
+      </c>
+      <c r="BM10">
+        <v>500</v>
+      </c>
+      <c r="BN10">
+        <v>500</v>
+      </c>
+      <c r="BO10">
+        <v>500</v>
+      </c>
+      <c r="BP10">
+        <v>500</v>
+      </c>
+      <c r="BQ10">
+        <v>500</v>
+      </c>
+      <c r="BR10">
+        <v>500</v>
+      </c>
+      <c r="BS10">
+        <v>500</v>
+      </c>
+      <c r="BT10">
+        <v>500</v>
+      </c>
+      <c r="BU10">
+        <v>500</v>
+      </c>
+      <c r="BV10">
+        <v>500</v>
+      </c>
+      <c r="BW10">
+        <v>500</v>
+      </c>
+      <c r="BX10">
+        <v>500</v>
+      </c>
+      <c r="BY10">
+        <v>500</v>
+      </c>
+      <c r="BZ10">
+        <v>500</v>
+      </c>
+      <c r="CA10">
+        <v>500</v>
+      </c>
+      <c r="CB10">
+        <v>500</v>
+      </c>
+      <c r="CC10">
+        <v>500</v>
+      </c>
+      <c r="CD10">
+        <v>500</v>
+      </c>
+      <c r="CE10">
+        <v>500</v>
+      </c>
+      <c r="CF10">
+        <v>500</v>
+      </c>
+      <c r="CG10">
+        <v>500</v>
+      </c>
+      <c r="CH10">
+        <v>500</v>
+      </c>
+      <c r="CI10">
+        <v>500</v>
+      </c>
+      <c r="CJ10">
+        <v>500</v>
+      </c>
+      <c r="CK10">
+        <v>500</v>
+      </c>
+      <c r="CL10">
+        <v>500</v>
+      </c>
+      <c r="CM10">
+        <v>500</v>
+      </c>
+      <c r="CN10">
+        <v>500</v>
+      </c>
+      <c r="CO10">
+        <v>500</v>
+      </c>
+      <c r="CP10">
+        <v>500</v>
+      </c>
+      <c r="CQ10">
+        <v>500</v>
+      </c>
+      <c r="CR10">
+        <v>500</v>
+      </c>
+      <c r="CS10">
+        <v>500</v>
+      </c>
+      <c r="CT10">
+        <v>500</v>
+      </c>
+      <c r="CU10">
+        <v>500</v>
+      </c>
+      <c r="CV10">
+        <v>500</v>
+      </c>
+      <c r="CW10">
+        <v>500</v>
+      </c>
+      <c r="CX10">
+        <v>500</v>
+      </c>
+      <c r="CY10">
+        <v>500</v>
+      </c>
+      <c r="CZ10">
+        <v>500</v>
+      </c>
+      <c r="DA10">
+        <v>500</v>
+      </c>
+      <c r="DB10">
+        <v>500</v>
+      </c>
+      <c r="DC10">
+        <v>500</v>
+      </c>
+      <c r="DD10">
+        <v>500</v>
+      </c>
+      <c r="DE10">
+        <v>500</v>
+      </c>
+      <c r="DF10">
+        <v>500</v>
+      </c>
+      <c r="DG10">
+        <v>500</v>
+      </c>
+      <c r="DH10">
+        <v>500</v>
+      </c>
+      <c r="DI10">
+        <v>500</v>
+      </c>
+      <c r="DJ10">
+        <v>500</v>
+      </c>
+      <c r="DK10">
+        <v>500</v>
+      </c>
+      <c r="DL10">
+        <v>500</v>
+      </c>
+      <c r="DM10">
+        <v>500</v>
+      </c>
+      <c r="DN10">
+        <v>500</v>
+      </c>
+      <c r="DO10">
+        <v>500</v>
+      </c>
+      <c r="DP10">
+        <v>500</v>
+      </c>
+      <c r="DQ10">
+        <v>500</v>
+      </c>
+      <c r="DR10">
+        <v>500</v>
+      </c>
+      <c r="DS10">
+        <v>500</v>
+      </c>
+      <c r="DT10">
+        <v>500</v>
+      </c>
+      <c r="DU10">
+        <v>500</v>
+      </c>
+      <c r="DV10">
+        <v>500</v>
+      </c>
+      <c r="DW10">
+        <v>500</v>
+      </c>
+      <c r="DX10">
+        <v>500</v>
+      </c>
+      <c r="DY10">
+        <v>500</v>
+      </c>
+      <c r="DZ10">
+        <v>500</v>
+      </c>
+      <c r="EA10">
+        <v>500</v>
+      </c>
+      <c r="EB10">
+        <v>500</v>
+      </c>
+      <c r="EC10">
+        <v>500</v>
+      </c>
+      <c r="ED10">
+        <v>500</v>
+      </c>
+      <c r="EE10">
+        <v>500</v>
+      </c>
+      <c r="EF10">
+        <v>500</v>
+      </c>
+      <c r="EG10">
+        <v>500</v>
+      </c>
+      <c r="EH10">
+        <v>500</v>
+      </c>
+      <c r="EI10">
+        <v>500</v>
+      </c>
+      <c r="EJ10">
+        <v>500</v>
+      </c>
+      <c r="EK10">
+        <v>500</v>
+      </c>
+      <c r="EL10">
+        <v>500</v>
+      </c>
+      <c r="EM10">
+        <v>500</v>
+      </c>
+      <c r="EN10">
+        <v>500</v>
+      </c>
+      <c r="EO10">
+        <v>500</v>
+      </c>
+      <c r="EP10">
+        <v>500</v>
+      </c>
+      <c r="EQ10">
+        <v>500</v>
+      </c>
+      <c r="ER10">
+        <v>500</v>
+      </c>
+      <c r="ES10">
+        <v>500</v>
+      </c>
+      <c r="ET10">
+        <v>500</v>
+      </c>
+      <c r="EU10">
+        <v>500</v>
+      </c>
+      <c r="EV10">
+        <v>500</v>
+      </c>
+      <c r="EW10">
+        <v>500</v>
+      </c>
+      <c r="EX10">
+        <v>500</v>
+      </c>
+      <c r="EY10">
+        <v>500</v>
+      </c>
+      <c r="EZ10">
+        <v>500</v>
+      </c>
+      <c r="FA10">
+        <v>500</v>
+      </c>
+      <c r="FB10">
+        <v>500</v>
+      </c>
+      <c r="FC10">
+        <v>500</v>
+      </c>
+      <c r="FD10">
+        <v>500</v>
+      </c>
+      <c r="FE10">
+        <v>500</v>
+      </c>
+      <c r="FF10">
+        <v>500</v>
+      </c>
+      <c r="FG10">
+        <v>500</v>
+      </c>
+      <c r="FH10">
+        <v>500</v>
+      </c>
+      <c r="FI10">
+        <v>500</v>
+      </c>
+      <c r="FJ10">
+        <v>500</v>
+      </c>
+      <c r="FK10">
+        <v>500</v>
+      </c>
+      <c r="FL10">
+        <v>500</v>
+      </c>
+      <c r="FM10">
+        <v>500</v>
+      </c>
+      <c r="FN10">
+        <v>500</v>
+      </c>
+      <c r="FO10">
+        <v>500</v>
+      </c>
+      <c r="FP10">
+        <v>500</v>
+      </c>
+      <c r="FQ10">
+        <v>500</v>
+      </c>
+      <c r="FR10">
+        <v>500</v>
+      </c>
+      <c r="FS10">
+        <v>500</v>
+      </c>
+      <c r="FT10">
+        <v>500</v>
+      </c>
+      <c r="FU10">
+        <v>500</v>
+      </c>
+      <c r="FV10">
+        <v>500</v>
+      </c>
+      <c r="FW10">
+        <v>500</v>
+      </c>
+      <c r="FX10">
+        <v>500</v>
+      </c>
+      <c r="FY10">
+        <v>500</v>
+      </c>
+      <c r="FZ10">
+        <v>500</v>
+      </c>
+      <c r="GA10">
+        <v>500</v>
+      </c>
+      <c r="GB10">
+        <v>500</v>
+      </c>
+      <c r="GC10">
+        <v>500</v>
+      </c>
+      <c r="GD10">
+        <v>500</v>
+      </c>
+      <c r="GE10">
+        <v>500</v>
+      </c>
+      <c r="GF10">
+        <v>500</v>
+      </c>
+      <c r="GG10">
+        <v>500</v>
+      </c>
+      <c r="GH10">
+        <v>500</v>
+      </c>
+      <c r="GI10">
+        <v>500</v>
+      </c>
+      <c r="GJ10">
+        <v>500</v>
+      </c>
+      <c r="GK10">
+        <v>500</v>
+      </c>
+      <c r="GL10">
+        <v>500</v>
+      </c>
+      <c r="GM10">
+        <v>500</v>
+      </c>
+      <c r="GN10">
+        <v>500</v>
+      </c>
+      <c r="GO10">
+        <v>500</v>
+      </c>
+      <c r="GP10">
+        <v>500</v>
+      </c>
+      <c r="GQ10">
+        <v>500</v>
+      </c>
+      <c r="GR10">
+        <v>500</v>
+      </c>
+      <c r="GS10">
+        <v>500</v>
+      </c>
+      <c r="GT10">
+        <v>500</v>
+      </c>
+      <c r="GU10">
+        <v>500</v>
+      </c>
+      <c r="GV10">
+        <v>500</v>
+      </c>
+      <c r="GW10">
+        <v>500</v>
+      </c>
+      <c r="GX10">
+        <v>500</v>
+      </c>
+      <c r="GY10">
+        <v>500</v>
+      </c>
+      <c r="GZ10">
+        <v>500</v>
+      </c>
+      <c r="HA10">
+        <v>500</v>
+      </c>
+      <c r="HB10">
+        <v>500</v>
+      </c>
+      <c r="HC10">
+        <v>500</v>
+      </c>
+      <c r="HD10">
+        <v>500</v>
+      </c>
+      <c r="HE10">
+        <v>500</v>
+      </c>
+      <c r="HF10">
+        <v>500</v>
+      </c>
+      <c r="HG10">
+        <v>500</v>
+      </c>
+      <c r="HH10">
+        <v>500</v>
+      </c>
+      <c r="HI10">
+        <v>500</v>
+      </c>
+      <c r="HJ10">
         <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:218">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="2">
-        <v>250</v>
-      </c>
-      <c r="D11" s="2">
-        <v>250</v>
-      </c>
-      <c r="E11" s="2">
-        <v>250</v>
-      </c>
-      <c r="F11" s="2">
-        <v>250</v>
-      </c>
-      <c r="G11" s="2">
-        <v>250</v>
-      </c>
-      <c r="H11" s="2">
-        <v>250</v>
-      </c>
-      <c r="I11" s="2">
-        <v>250</v>
-      </c>
-      <c r="J11" s="2">
-        <v>250</v>
-      </c>
-      <c r="K11" s="2">
-        <v>250</v>
-      </c>
-      <c r="L11" s="2">
-        <v>250</v>
-      </c>
-      <c r="M11" s="2">
-        <v>250</v>
-      </c>
-      <c r="N11" s="2">
-        <v>250</v>
-      </c>
-      <c r="O11" s="2">
-        <v>250</v>
-      </c>
-      <c r="P11" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>250</v>
-      </c>
-      <c r="R11" s="2">
-        <v>250</v>
-      </c>
-      <c r="S11" s="2">
-        <v>250</v>
-      </c>
-      <c r="T11" s="2">
-        <v>250</v>
-      </c>
-      <c r="U11" s="2">
-        <v>250</v>
-      </c>
-      <c r="V11" s="2">
-        <v>250</v>
-      </c>
-      <c r="W11" s="2">
-        <v>250</v>
-      </c>
-      <c r="X11" s="2">
-        <v>250</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>250</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>250</v>
-      </c>
-      <c r="AA11" s="2">
-        <v>250</v>
-      </c>
-      <c r="AB11" s="2">
-        <v>250</v>
-      </c>
-      <c r="AC11" s="2">
-        <v>250</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>250</v>
-      </c>
-      <c r="AE11" s="2">
-        <v>250</v>
-      </c>
-      <c r="AF11" s="2">
-        <v>250</v>
-      </c>
-      <c r="AG11" s="2">
-        <v>250</v>
-      </c>
-      <c r="AH11" s="2">
-        <v>250</v>
-      </c>
-      <c r="AI11" s="2">
-        <v>250</v>
-      </c>
-      <c r="AJ11" s="2">
-        <v>250</v>
-      </c>
-      <c r="AK11" s="2">
-        <v>250</v>
-      </c>
-      <c r="AL11" s="2">
-        <v>250</v>
-      </c>
-      <c r="AM11" s="2">
-        <v>250</v>
-      </c>
-      <c r="AN11" s="2">
-        <v>250</v>
-      </c>
-      <c r="AO11" s="2">
-        <v>250</v>
-      </c>
-      <c r="AP11" s="2">
-        <v>250</v>
-      </c>
-      <c r="AQ11" s="2">
-        <v>250</v>
-      </c>
-      <c r="AR11" s="2">
-        <v>250</v>
-      </c>
-      <c r="AS11" s="2">
-        <v>250</v>
-      </c>
-      <c r="AT11" s="2">
-        <v>250</v>
-      </c>
-      <c r="AU11" s="2">
-        <v>250</v>
-      </c>
-      <c r="AV11" s="2">
-        <v>250</v>
-      </c>
-      <c r="AW11" s="2">
-        <v>250</v>
-      </c>
-      <c r="AX11" s="2">
-        <v>250</v>
-      </c>
-      <c r="AY11" s="2">
-        <v>250</v>
-      </c>
-      <c r="AZ11" s="2">
-        <v>250</v>
-      </c>
-      <c r="BA11" s="2">
-        <v>250</v>
-      </c>
-      <c r="BB11" s="2">
-        <v>250</v>
-      </c>
-      <c r="BC11" s="2">
-        <v>250</v>
-      </c>
-      <c r="BD11" s="2">
-        <v>250</v>
-      </c>
-      <c r="BE11" s="2">
-        <v>250</v>
-      </c>
-      <c r="BF11" s="2">
-        <v>250</v>
-      </c>
-      <c r="BG11" s="2">
-        <v>250</v>
-      </c>
-      <c r="BH11" s="2">
-        <v>250</v>
-      </c>
-      <c r="BI11" s="2">
-        <v>250</v>
-      </c>
-      <c r="BJ11" s="2">
-        <v>250</v>
-      </c>
-      <c r="BK11" s="2">
-        <v>250</v>
-      </c>
-      <c r="BL11" s="2">
-        <v>250</v>
-      </c>
-      <c r="BM11" s="2">
-        <v>250</v>
-      </c>
-      <c r="BN11" s="2">
-        <v>250</v>
-      </c>
-      <c r="BO11" s="2">
-        <v>250</v>
-      </c>
-      <c r="BP11" s="2">
-        <v>250</v>
-      </c>
-      <c r="BQ11" s="2">
-        <v>250</v>
-      </c>
-      <c r="BR11" s="2">
-        <v>250</v>
-      </c>
-      <c r="BS11" s="2">
-        <v>250</v>
-      </c>
-      <c r="BT11" s="2">
-        <v>250</v>
-      </c>
-      <c r="BU11" s="2">
-        <v>250</v>
-      </c>
-      <c r="BV11" s="2">
-        <v>250</v>
-      </c>
-      <c r="BW11" s="2">
-        <v>250</v>
-      </c>
-      <c r="BX11" s="2">
-        <v>250</v>
-      </c>
-      <c r="BY11" s="2">
-        <v>250</v>
-      </c>
-      <c r="BZ11" s="2">
-        <v>250</v>
-      </c>
-      <c r="CA11" s="2">
-        <v>250</v>
-      </c>
-      <c r="CB11" s="2">
-        <v>250</v>
-      </c>
-      <c r="CC11" s="2">
-        <v>250</v>
-      </c>
-      <c r="CD11" s="2">
-        <v>250</v>
-      </c>
-      <c r="CE11" s="2">
-        <v>250</v>
-      </c>
-      <c r="CF11" s="2">
-        <v>250</v>
-      </c>
-      <c r="CG11" s="2">
-        <v>250</v>
-      </c>
-      <c r="CH11" s="2">
-        <v>250</v>
-      </c>
-      <c r="CI11" s="2">
-        <v>250</v>
-      </c>
-      <c r="CJ11" s="2">
-        <v>250</v>
-      </c>
-      <c r="CK11" s="2">
-        <v>250</v>
-      </c>
-      <c r="CL11" s="2">
-        <v>250</v>
-      </c>
-      <c r="CM11" s="2">
-        <v>250</v>
-      </c>
-      <c r="CN11" s="2">
-        <v>250</v>
-      </c>
-      <c r="CO11" s="2">
-        <v>250</v>
-      </c>
-      <c r="CP11" s="2">
-        <v>250</v>
-      </c>
-      <c r="CQ11" s="2">
-        <v>250</v>
-      </c>
-      <c r="CR11" s="2">
-        <v>250</v>
-      </c>
-      <c r="CS11" s="2">
-        <v>250</v>
-      </c>
-      <c r="CT11" s="2">
-        <v>250</v>
-      </c>
-      <c r="CU11" s="2">
-        <v>250</v>
-      </c>
-      <c r="CV11" s="2">
-        <v>250</v>
-      </c>
-      <c r="CW11" s="2">
-        <v>250</v>
-      </c>
-      <c r="CX11" s="2">
-        <v>250</v>
-      </c>
-      <c r="CY11" s="2">
-        <v>250</v>
-      </c>
-      <c r="CZ11" s="2">
-        <v>250</v>
-      </c>
-      <c r="DA11" s="2">
-        <v>250</v>
-      </c>
-      <c r="DB11" s="2">
-        <v>250</v>
-      </c>
-      <c r="DC11" s="2">
-        <v>250</v>
-      </c>
-      <c r="DD11" s="2">
-        <v>250</v>
-      </c>
-      <c r="DE11" s="2">
-        <v>250</v>
-      </c>
-      <c r="DF11" s="2">
-        <v>250</v>
-      </c>
-      <c r="DG11" s="2">
-        <v>250</v>
-      </c>
-      <c r="DH11" s="2">
-        <v>250</v>
-      </c>
-      <c r="DI11" s="2">
-        <v>250</v>
-      </c>
-      <c r="DJ11" s="2">
-        <v>250</v>
-      </c>
-      <c r="DK11" s="2">
-        <v>250</v>
-      </c>
-      <c r="DL11" s="2">
-        <v>250</v>
-      </c>
-      <c r="DM11" s="2">
-        <v>250</v>
-      </c>
-      <c r="DN11" s="2">
-        <v>250</v>
-      </c>
-      <c r="DO11" s="2">
-        <v>250</v>
-      </c>
-      <c r="DP11" s="2">
-        <v>250</v>
-      </c>
-      <c r="DQ11" s="2">
-        <v>250</v>
-      </c>
-      <c r="DR11" s="2">
-        <v>250</v>
-      </c>
-      <c r="DS11" s="2">
-        <v>250</v>
-      </c>
-      <c r="DT11" s="2">
-        <v>250</v>
-      </c>
-      <c r="DU11" s="2">
-        <v>250</v>
-      </c>
-      <c r="DV11" s="2">
-        <v>250</v>
-      </c>
-      <c r="DW11" s="2">
-        <v>250</v>
-      </c>
-      <c r="DX11" s="2">
-        <v>250</v>
-      </c>
-      <c r="DY11" s="2">
-        <v>250</v>
-      </c>
-      <c r="DZ11" s="2">
-        <v>250</v>
-      </c>
-      <c r="EA11" s="2">
-        <v>250</v>
-      </c>
-      <c r="EB11" s="2">
-        <v>250</v>
-      </c>
-      <c r="EC11" s="2">
-        <v>250</v>
-      </c>
-      <c r="ED11" s="2">
-        <v>250</v>
-      </c>
-      <c r="EE11" s="2">
-        <v>250</v>
-      </c>
-      <c r="EF11" s="2">
-        <v>250</v>
-      </c>
-      <c r="EG11" s="2">
-        <v>250</v>
-      </c>
-      <c r="EH11" s="2">
-        <v>250</v>
-      </c>
-      <c r="EI11" s="2">
-        <v>250</v>
-      </c>
-      <c r="EJ11" s="2">
-        <v>250</v>
-      </c>
-      <c r="EK11" s="2">
-        <v>250</v>
-      </c>
-      <c r="EL11" s="2">
-        <v>250</v>
-      </c>
-      <c r="EM11" s="2">
-        <v>250</v>
-      </c>
-      <c r="EN11" s="2">
-        <v>250</v>
-      </c>
-      <c r="EO11" s="2">
-        <v>250</v>
-      </c>
-      <c r="EP11" s="2">
-        <v>250</v>
-      </c>
-      <c r="EQ11" s="2">
-        <v>250</v>
-      </c>
-      <c r="ER11" s="2">
-        <v>250</v>
-      </c>
-      <c r="ES11" s="2">
-        <v>250</v>
-      </c>
-      <c r="ET11" s="2">
-        <v>250</v>
-      </c>
-      <c r="EU11" s="2">
-        <v>250</v>
-      </c>
-      <c r="EV11" s="2">
-        <v>250</v>
-      </c>
-      <c r="EW11" s="2">
-        <v>250</v>
-      </c>
-      <c r="EX11" s="2">
-        <v>250</v>
-      </c>
-      <c r="EY11" s="2">
-        <v>250</v>
-      </c>
-      <c r="EZ11" s="2">
-        <v>250</v>
-      </c>
-      <c r="FA11" s="2">
-        <v>250</v>
-      </c>
-      <c r="FB11" s="2">
-        <v>250</v>
-      </c>
-      <c r="FC11" s="2">
-        <v>250</v>
-      </c>
-      <c r="FD11" s="2">
-        <v>250</v>
-      </c>
-      <c r="FE11" s="2">
-        <v>250</v>
-      </c>
-      <c r="FF11" s="2">
-        <v>250</v>
-      </c>
-      <c r="FG11" s="2">
-        <v>250</v>
-      </c>
-      <c r="FH11" s="2">
-        <v>250</v>
-      </c>
-      <c r="FI11" s="2">
-        <v>250</v>
-      </c>
-      <c r="FJ11" s="2">
-        <v>250</v>
-      </c>
-      <c r="FK11" s="2">
-        <v>250</v>
-      </c>
-      <c r="FL11" s="2">
-        <v>250</v>
-      </c>
-      <c r="FM11" s="2">
-        <v>250</v>
-      </c>
-      <c r="FN11" s="2">
-        <v>250</v>
-      </c>
-      <c r="FO11" s="2">
-        <v>250</v>
-      </c>
-      <c r="FP11" s="2">
-        <v>250</v>
-      </c>
-      <c r="FQ11" s="2">
-        <v>250</v>
-      </c>
-      <c r="FR11" s="2">
-        <v>250</v>
-      </c>
-      <c r="FS11" s="2">
-        <v>250</v>
-      </c>
-      <c r="FT11" s="2">
-        <v>250</v>
-      </c>
-      <c r="FU11" s="2">
-        <v>250</v>
-      </c>
-      <c r="FV11" s="2">
-        <v>250</v>
-      </c>
-      <c r="FW11" s="2">
-        <v>250</v>
-      </c>
-      <c r="FX11" s="2">
-        <v>250</v>
-      </c>
-      <c r="FY11" s="2">
-        <v>250</v>
-      </c>
-      <c r="FZ11" s="2">
-        <v>250</v>
-      </c>
-      <c r="GA11" s="2">
-        <v>250</v>
-      </c>
-      <c r="GB11" s="2">
-        <v>250</v>
-      </c>
-      <c r="GC11" s="2">
-        <v>250</v>
-      </c>
-      <c r="GD11" s="2">
-        <v>250</v>
-      </c>
-      <c r="GE11" s="2">
-        <v>250</v>
-      </c>
-      <c r="GF11" s="2">
-        <v>250</v>
-      </c>
-      <c r="GG11" s="2">
-        <v>250</v>
-      </c>
-      <c r="GH11" s="2">
-        <v>250</v>
-      </c>
-      <c r="GI11" s="2">
-        <v>250</v>
-      </c>
-      <c r="GJ11" s="2">
-        <v>250</v>
-      </c>
-      <c r="GK11" s="2">
-        <v>250</v>
-      </c>
-      <c r="GL11" s="2">
-        <v>250</v>
-      </c>
-      <c r="GM11" s="2">
-        <v>250</v>
-      </c>
-      <c r="GN11" s="2">
-        <v>250</v>
-      </c>
-      <c r="GO11" s="2">
-        <v>250</v>
-      </c>
-      <c r="GP11" s="2">
-        <v>250</v>
-      </c>
-      <c r="GQ11" s="2">
-        <v>250</v>
-      </c>
-      <c r="GR11" s="2">
-        <v>250</v>
-      </c>
-      <c r="GS11" s="2">
-        <v>250</v>
-      </c>
-      <c r="GT11" s="2">
-        <v>250</v>
-      </c>
-      <c r="GU11" s="2">
-        <v>250</v>
-      </c>
-      <c r="GV11" s="2">
-        <v>250</v>
-      </c>
-      <c r="GW11" s="2">
-        <v>250</v>
-      </c>
-      <c r="GX11" s="2">
-        <v>250</v>
-      </c>
-      <c r="GY11" s="2">
-        <v>250</v>
-      </c>
-      <c r="GZ11" s="2">
-        <v>250</v>
-      </c>
-      <c r="HA11" s="2">
-        <v>250</v>
-      </c>
-      <c r="HB11" s="2">
-        <v>250</v>
-      </c>
-      <c r="HC11" s="2">
-        <v>250</v>
-      </c>
-      <c r="HD11" s="2">
-        <v>250</v>
-      </c>
-      <c r="HE11" s="2">
-        <v>250</v>
-      </c>
-      <c r="HF11" s="2">
-        <v>250</v>
-      </c>
-      <c r="HG11" s="2">
-        <v>250</v>
-      </c>
-      <c r="HH11" s="2">
-        <v>250</v>
-      </c>
-      <c r="HI11" s="2">
-        <v>250</v>
-      </c>
-      <c r="HJ11" s="2">
+      <c r="C11">
+        <v>250</v>
+      </c>
+      <c r="D11">
+        <v>250</v>
+      </c>
+      <c r="E11">
+        <v>250</v>
+      </c>
+      <c r="F11">
+        <v>250</v>
+      </c>
+      <c r="G11">
+        <v>250</v>
+      </c>
+      <c r="H11">
+        <v>250</v>
+      </c>
+      <c r="I11">
+        <v>250</v>
+      </c>
+      <c r="J11">
+        <v>250</v>
+      </c>
+      <c r="K11">
+        <v>250</v>
+      </c>
+      <c r="L11">
+        <v>250</v>
+      </c>
+      <c r="M11">
+        <v>250</v>
+      </c>
+      <c r="N11">
+        <v>250</v>
+      </c>
+      <c r="O11">
+        <v>250</v>
+      </c>
+      <c r="P11">
+        <v>250</v>
+      </c>
+      <c r="Q11">
+        <v>250</v>
+      </c>
+      <c r="R11">
+        <v>250</v>
+      </c>
+      <c r="S11">
+        <v>250</v>
+      </c>
+      <c r="T11">
+        <v>250</v>
+      </c>
+      <c r="U11">
+        <v>250</v>
+      </c>
+      <c r="V11">
+        <v>250</v>
+      </c>
+      <c r="W11">
+        <v>250</v>
+      </c>
+      <c r="X11">
+        <v>250</v>
+      </c>
+      <c r="Y11">
+        <v>250</v>
+      </c>
+      <c r="Z11">
+        <v>250</v>
+      </c>
+      <c r="AA11">
+        <v>250</v>
+      </c>
+      <c r="AB11">
+        <v>250</v>
+      </c>
+      <c r="AC11">
+        <v>250</v>
+      </c>
+      <c r="AD11">
+        <v>250</v>
+      </c>
+      <c r="AE11">
+        <v>250</v>
+      </c>
+      <c r="AF11">
+        <v>250</v>
+      </c>
+      <c r="AG11">
+        <v>250</v>
+      </c>
+      <c r="AH11">
+        <v>250</v>
+      </c>
+      <c r="AI11">
+        <v>250</v>
+      </c>
+      <c r="AJ11">
+        <v>250</v>
+      </c>
+      <c r="AK11">
+        <v>250</v>
+      </c>
+      <c r="AL11">
+        <v>250</v>
+      </c>
+      <c r="AM11">
+        <v>250</v>
+      </c>
+      <c r="AN11">
+        <v>250</v>
+      </c>
+      <c r="AO11">
+        <v>250</v>
+      </c>
+      <c r="AP11">
+        <v>250</v>
+      </c>
+      <c r="AQ11">
+        <v>250</v>
+      </c>
+      <c r="AR11">
+        <v>250</v>
+      </c>
+      <c r="AS11">
+        <v>250</v>
+      </c>
+      <c r="AT11">
+        <v>250</v>
+      </c>
+      <c r="AU11">
+        <v>250</v>
+      </c>
+      <c r="AV11">
+        <v>250</v>
+      </c>
+      <c r="AW11">
+        <v>250</v>
+      </c>
+      <c r="AX11">
+        <v>250</v>
+      </c>
+      <c r="AY11">
+        <v>250</v>
+      </c>
+      <c r="AZ11">
+        <v>250</v>
+      </c>
+      <c r="BA11">
+        <v>250</v>
+      </c>
+      <c r="BB11">
+        <v>250</v>
+      </c>
+      <c r="BC11">
+        <v>250</v>
+      </c>
+      <c r="BD11">
+        <v>250</v>
+      </c>
+      <c r="BE11">
+        <v>250</v>
+      </c>
+      <c r="BF11">
+        <v>250</v>
+      </c>
+      <c r="BG11">
+        <v>250</v>
+      </c>
+      <c r="BH11">
+        <v>250</v>
+      </c>
+      <c r="BI11">
+        <v>250</v>
+      </c>
+      <c r="BJ11">
+        <v>250</v>
+      </c>
+      <c r="BK11">
+        <v>250</v>
+      </c>
+      <c r="BL11">
+        <v>250</v>
+      </c>
+      <c r="BM11">
+        <v>250</v>
+      </c>
+      <c r="BN11">
+        <v>250</v>
+      </c>
+      <c r="BO11">
+        <v>250</v>
+      </c>
+      <c r="BP11">
+        <v>250</v>
+      </c>
+      <c r="BQ11">
+        <v>250</v>
+      </c>
+      <c r="BR11">
+        <v>250</v>
+      </c>
+      <c r="BS11">
+        <v>250</v>
+      </c>
+      <c r="BT11">
+        <v>250</v>
+      </c>
+      <c r="BU11">
+        <v>250</v>
+      </c>
+      <c r="BV11">
+        <v>250</v>
+      </c>
+      <c r="BW11">
+        <v>250</v>
+      </c>
+      <c r="BX11">
+        <v>250</v>
+      </c>
+      <c r="BY11">
+        <v>250</v>
+      </c>
+      <c r="BZ11">
+        <v>250</v>
+      </c>
+      <c r="CA11">
+        <v>250</v>
+      </c>
+      <c r="CB11">
+        <v>250</v>
+      </c>
+      <c r="CC11">
+        <v>250</v>
+      </c>
+      <c r="CD11">
+        <v>250</v>
+      </c>
+      <c r="CE11">
+        <v>250</v>
+      </c>
+      <c r="CF11">
+        <v>250</v>
+      </c>
+      <c r="CG11">
+        <v>250</v>
+      </c>
+      <c r="CH11">
+        <v>250</v>
+      </c>
+      <c r="CI11">
+        <v>250</v>
+      </c>
+      <c r="CJ11">
+        <v>250</v>
+      </c>
+      <c r="CK11">
+        <v>250</v>
+      </c>
+      <c r="CL11">
+        <v>250</v>
+      </c>
+      <c r="CM11">
+        <v>250</v>
+      </c>
+      <c r="CN11">
+        <v>250</v>
+      </c>
+      <c r="CO11">
+        <v>250</v>
+      </c>
+      <c r="CP11">
+        <v>250</v>
+      </c>
+      <c r="CQ11">
+        <v>250</v>
+      </c>
+      <c r="CR11">
+        <v>250</v>
+      </c>
+      <c r="CS11">
+        <v>250</v>
+      </c>
+      <c r="CT11">
+        <v>250</v>
+      </c>
+      <c r="CU11">
+        <v>250</v>
+      </c>
+      <c r="CV11">
+        <v>250</v>
+      </c>
+      <c r="CW11">
+        <v>250</v>
+      </c>
+      <c r="CX11">
+        <v>250</v>
+      </c>
+      <c r="CY11">
+        <v>250</v>
+      </c>
+      <c r="CZ11">
+        <v>250</v>
+      </c>
+      <c r="DA11">
+        <v>250</v>
+      </c>
+      <c r="DB11">
+        <v>250</v>
+      </c>
+      <c r="DC11">
+        <v>250</v>
+      </c>
+      <c r="DD11">
+        <v>250</v>
+      </c>
+      <c r="DE11">
+        <v>250</v>
+      </c>
+      <c r="DF11">
+        <v>250</v>
+      </c>
+      <c r="DG11">
+        <v>250</v>
+      </c>
+      <c r="DH11">
+        <v>250</v>
+      </c>
+      <c r="DI11">
+        <v>250</v>
+      </c>
+      <c r="DJ11">
+        <v>250</v>
+      </c>
+      <c r="DK11">
+        <v>250</v>
+      </c>
+      <c r="DL11">
+        <v>250</v>
+      </c>
+      <c r="DM11">
+        <v>250</v>
+      </c>
+      <c r="DN11">
+        <v>250</v>
+      </c>
+      <c r="DO11">
+        <v>250</v>
+      </c>
+      <c r="DP11">
+        <v>250</v>
+      </c>
+      <c r="DQ11">
+        <v>250</v>
+      </c>
+      <c r="DR11">
+        <v>250</v>
+      </c>
+      <c r="DS11">
+        <v>250</v>
+      </c>
+      <c r="DT11">
+        <v>250</v>
+      </c>
+      <c r="DU11">
+        <v>250</v>
+      </c>
+      <c r="DV11">
+        <v>250</v>
+      </c>
+      <c r="DW11">
+        <v>250</v>
+      </c>
+      <c r="DX11">
+        <v>250</v>
+      </c>
+      <c r="DY11">
+        <v>250</v>
+      </c>
+      <c r="DZ11">
+        <v>250</v>
+      </c>
+      <c r="EA11">
+        <v>250</v>
+      </c>
+      <c r="EB11">
+        <v>250</v>
+      </c>
+      <c r="EC11">
+        <v>250</v>
+      </c>
+      <c r="ED11">
+        <v>250</v>
+      </c>
+      <c r="EE11">
+        <v>250</v>
+      </c>
+      <c r="EF11">
+        <v>250</v>
+      </c>
+      <c r="EG11">
+        <v>250</v>
+      </c>
+      <c r="EH11">
+        <v>250</v>
+      </c>
+      <c r="EI11">
+        <v>250</v>
+      </c>
+      <c r="EJ11">
+        <v>250</v>
+      </c>
+      <c r="EK11">
+        <v>250</v>
+      </c>
+      <c r="EL11">
+        <v>250</v>
+      </c>
+      <c r="EM11">
+        <v>250</v>
+      </c>
+      <c r="EN11">
+        <v>250</v>
+      </c>
+      <c r="EO11">
+        <v>250</v>
+      </c>
+      <c r="EP11">
+        <v>250</v>
+      </c>
+      <c r="EQ11">
+        <v>250</v>
+      </c>
+      <c r="ER11">
+        <v>250</v>
+      </c>
+      <c r="ES11">
+        <v>250</v>
+      </c>
+      <c r="ET11">
+        <v>250</v>
+      </c>
+      <c r="EU11">
+        <v>250</v>
+      </c>
+      <c r="EV11">
+        <v>250</v>
+      </c>
+      <c r="EW11">
+        <v>250</v>
+      </c>
+      <c r="EX11">
+        <v>250</v>
+      </c>
+      <c r="EY11">
+        <v>250</v>
+      </c>
+      <c r="EZ11">
+        <v>250</v>
+      </c>
+      <c r="FA11">
+        <v>250</v>
+      </c>
+      <c r="FB11">
+        <v>250</v>
+      </c>
+      <c r="FC11">
+        <v>250</v>
+      </c>
+      <c r="FD11">
+        <v>250</v>
+      </c>
+      <c r="FE11">
+        <v>250</v>
+      </c>
+      <c r="FF11">
+        <v>250</v>
+      </c>
+      <c r="FG11">
+        <v>250</v>
+      </c>
+      <c r="FH11">
+        <v>250</v>
+      </c>
+      <c r="FI11">
+        <v>250</v>
+      </c>
+      <c r="FJ11">
+        <v>250</v>
+      </c>
+      <c r="FK11">
+        <v>250</v>
+      </c>
+      <c r="FL11">
+        <v>250</v>
+      </c>
+      <c r="FM11">
+        <v>250</v>
+      </c>
+      <c r="FN11">
+        <v>250</v>
+      </c>
+      <c r="FO11">
+        <v>250</v>
+      </c>
+      <c r="FP11">
+        <v>250</v>
+      </c>
+      <c r="FQ11">
+        <v>250</v>
+      </c>
+      <c r="FR11">
+        <v>250</v>
+      </c>
+      <c r="FS11">
+        <v>250</v>
+      </c>
+      <c r="FT11">
+        <v>250</v>
+      </c>
+      <c r="FU11">
+        <v>250</v>
+      </c>
+      <c r="FV11">
+        <v>250</v>
+      </c>
+      <c r="FW11">
+        <v>250</v>
+      </c>
+      <c r="FX11">
+        <v>250</v>
+      </c>
+      <c r="FY11">
+        <v>250</v>
+      </c>
+      <c r="FZ11">
+        <v>250</v>
+      </c>
+      <c r="GA11">
+        <v>250</v>
+      </c>
+      <c r="GB11">
+        <v>250</v>
+      </c>
+      <c r="GC11">
+        <v>250</v>
+      </c>
+      <c r="GD11">
+        <v>250</v>
+      </c>
+      <c r="GE11">
+        <v>250</v>
+      </c>
+      <c r="GF11">
+        <v>250</v>
+      </c>
+      <c r="GG11">
+        <v>250</v>
+      </c>
+      <c r="GH11">
+        <v>250</v>
+      </c>
+      <c r="GI11">
+        <v>250</v>
+      </c>
+      <c r="GJ11">
+        <v>250</v>
+      </c>
+      <c r="GK11">
+        <v>250</v>
+      </c>
+      <c r="GL11">
+        <v>250</v>
+      </c>
+      <c r="GM11">
+        <v>250</v>
+      </c>
+      <c r="GN11">
+        <v>250</v>
+      </c>
+      <c r="GO11">
+        <v>250</v>
+      </c>
+      <c r="GP11">
+        <v>250</v>
+      </c>
+      <c r="GQ11">
+        <v>250</v>
+      </c>
+      <c r="GR11">
+        <v>250</v>
+      </c>
+      <c r="GS11">
+        <v>250</v>
+      </c>
+      <c r="GT11">
+        <v>250</v>
+      </c>
+      <c r="GU11">
+        <v>250</v>
+      </c>
+      <c r="GV11">
+        <v>250</v>
+      </c>
+      <c r="GW11">
+        <v>250</v>
+      </c>
+      <c r="GX11">
+        <v>250</v>
+      </c>
+      <c r="GY11">
+        <v>250</v>
+      </c>
+      <c r="GZ11">
+        <v>250</v>
+      </c>
+      <c r="HA11">
+        <v>250</v>
+      </c>
+      <c r="HB11">
+        <v>250</v>
+      </c>
+      <c r="HC11">
+        <v>250</v>
+      </c>
+      <c r="HD11">
+        <v>250</v>
+      </c>
+      <c r="HE11">
+        <v>250</v>
+      </c>
+      <c r="HF11">
+        <v>250</v>
+      </c>
+      <c r="HG11">
+        <v>250</v>
+      </c>
+      <c r="HH11">
+        <v>250</v>
+      </c>
+      <c r="HI11">
+        <v>250</v>
+      </c>
+      <c r="HJ11">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:218">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="2">
-        <v>250</v>
-      </c>
-      <c r="D12" s="2">
-        <v>250</v>
-      </c>
-      <c r="E12" s="2">
-        <v>250</v>
-      </c>
-      <c r="F12" s="2">
-        <v>250</v>
-      </c>
-      <c r="G12" s="2">
-        <v>250</v>
-      </c>
-      <c r="H12" s="2">
-        <v>250</v>
-      </c>
-      <c r="I12" s="2">
-        <v>250</v>
-      </c>
-      <c r="J12" s="2">
-        <v>250</v>
-      </c>
-      <c r="K12" s="2">
-        <v>250</v>
-      </c>
-      <c r="L12" s="2">
-        <v>250</v>
-      </c>
-      <c r="M12" s="2">
-        <v>250</v>
-      </c>
-      <c r="N12" s="2">
-        <v>250</v>
-      </c>
-      <c r="O12" s="2">
-        <v>250</v>
-      </c>
-      <c r="P12" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>250</v>
-      </c>
-      <c r="R12" s="2">
-        <v>250</v>
-      </c>
-      <c r="S12" s="2">
-        <v>250</v>
-      </c>
-      <c r="T12" s="2">
-        <v>250</v>
-      </c>
-      <c r="U12" s="2">
-        <v>250</v>
-      </c>
-      <c r="V12" s="2">
-        <v>250</v>
-      </c>
-      <c r="W12" s="2">
-        <v>250</v>
-      </c>
-      <c r="X12" s="2">
-        <v>250</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>250</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>250</v>
-      </c>
-      <c r="AA12" s="2">
-        <v>250</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>250</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>250</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>250</v>
-      </c>
-      <c r="AE12" s="2">
-        <v>250</v>
-      </c>
-      <c r="AF12" s="2">
-        <v>250</v>
-      </c>
-      <c r="AG12" s="2">
-        <v>250</v>
-      </c>
-      <c r="AH12" s="2">
-        <v>250</v>
-      </c>
-      <c r="AI12" s="2">
-        <v>250</v>
-      </c>
-      <c r="AJ12" s="2">
-        <v>250</v>
-      </c>
-      <c r="AK12" s="2">
-        <v>250</v>
-      </c>
-      <c r="AL12" s="2">
-        <v>250</v>
-      </c>
-      <c r="AM12" s="2">
-        <v>250</v>
-      </c>
-      <c r="AN12" s="2">
-        <v>250</v>
-      </c>
-      <c r="AO12" s="2">
-        <v>250</v>
-      </c>
-      <c r="AP12" s="2">
-        <v>250</v>
-      </c>
-      <c r="AQ12" s="2">
-        <v>250</v>
-      </c>
-      <c r="AR12" s="2">
-        <v>250</v>
-      </c>
-      <c r="AS12" s="2">
-        <v>250</v>
-      </c>
-      <c r="AT12" s="2">
-        <v>250</v>
-      </c>
-      <c r="AU12" s="2">
-        <v>250</v>
-      </c>
-      <c r="AV12" s="2">
-        <v>250</v>
-      </c>
-      <c r="AW12" s="2">
-        <v>250</v>
-      </c>
-      <c r="AX12" s="2">
-        <v>250</v>
-      </c>
-      <c r="AY12" s="2">
-        <v>250</v>
-      </c>
-      <c r="AZ12" s="2">
-        <v>250</v>
-      </c>
-      <c r="BA12" s="2">
-        <v>250</v>
-      </c>
-      <c r="BB12" s="2">
-        <v>250</v>
-      </c>
-      <c r="BC12" s="2">
-        <v>250</v>
-      </c>
-      <c r="BD12" s="2">
-        <v>250</v>
-      </c>
-      <c r="BE12" s="2">
-        <v>250</v>
-      </c>
-      <c r="BF12" s="2">
-        <v>250</v>
-      </c>
-      <c r="BG12" s="2">
-        <v>250</v>
-      </c>
-      <c r="BH12" s="2">
-        <v>250</v>
-      </c>
-      <c r="BI12" s="2">
-        <v>250</v>
-      </c>
-      <c r="BJ12" s="2">
-        <v>250</v>
-      </c>
-      <c r="BK12" s="2">
-        <v>250</v>
-      </c>
-      <c r="BL12" s="2">
-        <v>250</v>
-      </c>
-      <c r="BM12" s="2">
-        <v>250</v>
-      </c>
-      <c r="BN12" s="2">
-        <v>250</v>
-      </c>
-      <c r="BO12" s="2">
-        <v>250</v>
-      </c>
-      <c r="BP12" s="2">
-        <v>250</v>
-      </c>
-      <c r="BQ12" s="2">
-        <v>250</v>
-      </c>
-      <c r="BR12" s="2">
-        <v>250</v>
-      </c>
-      <c r="BS12" s="2">
-        <v>250</v>
-      </c>
-      <c r="BT12" s="2">
-        <v>250</v>
-      </c>
-      <c r="BU12" s="2">
-        <v>250</v>
-      </c>
-      <c r="BV12" s="2">
-        <v>250</v>
-      </c>
-      <c r="BW12" s="2">
-        <v>250</v>
-      </c>
-      <c r="BX12" s="2">
-        <v>250</v>
-      </c>
-      <c r="BY12" s="2">
-        <v>250</v>
-      </c>
-      <c r="BZ12" s="2">
-        <v>250</v>
-      </c>
-      <c r="CA12" s="2">
-        <v>250</v>
-      </c>
-      <c r="CB12" s="2">
-        <v>250</v>
-      </c>
-      <c r="CC12" s="2">
-        <v>250</v>
-      </c>
-      <c r="CD12" s="2">
-        <v>250</v>
-      </c>
-      <c r="CE12" s="2">
-        <v>250</v>
-      </c>
-      <c r="CF12" s="2">
-        <v>250</v>
-      </c>
-      <c r="CG12" s="2">
-        <v>250</v>
-      </c>
-      <c r="CH12" s="2">
-        <v>250</v>
-      </c>
-      <c r="CI12" s="2">
-        <v>250</v>
-      </c>
-      <c r="CJ12" s="2">
-        <v>250</v>
-      </c>
-      <c r="CK12" s="2">
-        <v>250</v>
-      </c>
-      <c r="CL12" s="2">
-        <v>250</v>
-      </c>
-      <c r="CM12" s="2">
-        <v>250</v>
-      </c>
-      <c r="CN12" s="2">
-        <v>250</v>
-      </c>
-      <c r="CO12" s="2">
-        <v>250</v>
-      </c>
-      <c r="CP12" s="2">
-        <v>250</v>
-      </c>
-      <c r="CQ12" s="2">
-        <v>250</v>
-      </c>
-      <c r="CR12" s="2">
-        <v>250</v>
-      </c>
-      <c r="CS12" s="2">
-        <v>250</v>
-      </c>
-      <c r="CT12" s="2">
-        <v>250</v>
-      </c>
-      <c r="CU12" s="2">
-        <v>250</v>
-      </c>
-      <c r="CV12" s="2">
-        <v>250</v>
-      </c>
-      <c r="CW12" s="2">
-        <v>250</v>
-      </c>
-      <c r="CX12" s="2">
-        <v>250</v>
-      </c>
-      <c r="CY12" s="2">
-        <v>250</v>
-      </c>
-      <c r="CZ12" s="2">
-        <v>250</v>
-      </c>
-      <c r="DA12" s="2">
-        <v>250</v>
-      </c>
-      <c r="DB12" s="2">
-        <v>250</v>
-      </c>
-      <c r="DC12" s="2">
-        <v>250</v>
-      </c>
-      <c r="DD12" s="2">
-        <v>250</v>
-      </c>
-      <c r="DE12" s="2">
-        <v>250</v>
-      </c>
-      <c r="DF12" s="2">
-        <v>250</v>
-      </c>
-      <c r="DG12" s="2">
-        <v>250</v>
-      </c>
-      <c r="DH12" s="2">
-        <v>250</v>
-      </c>
-      <c r="DI12" s="2">
-        <v>250</v>
-      </c>
-      <c r="DJ12" s="2">
-        <v>250</v>
-      </c>
-      <c r="DK12" s="2">
-        <v>250</v>
-      </c>
-      <c r="DL12" s="2">
-        <v>250</v>
-      </c>
-      <c r="DM12" s="2">
-        <v>250</v>
-      </c>
-      <c r="DN12" s="2">
-        <v>250</v>
-      </c>
-      <c r="DO12" s="2">
-        <v>250</v>
-      </c>
-      <c r="DP12" s="2">
-        <v>250</v>
-      </c>
-      <c r="DQ12" s="2">
-        <v>250</v>
-      </c>
-      <c r="DR12" s="2">
-        <v>250</v>
-      </c>
-      <c r="DS12" s="2">
-        <v>250</v>
-      </c>
-      <c r="DT12" s="2">
-        <v>250</v>
-      </c>
-      <c r="DU12" s="2">
-        <v>250</v>
-      </c>
-      <c r="DV12" s="2">
-        <v>250</v>
-      </c>
-      <c r="DW12" s="2">
-        <v>250</v>
-      </c>
-      <c r="DX12" s="2">
-        <v>250</v>
-      </c>
-      <c r="DY12" s="2">
-        <v>250</v>
-      </c>
-      <c r="DZ12" s="2">
-        <v>250</v>
-      </c>
-      <c r="EA12" s="2">
-        <v>250</v>
-      </c>
-      <c r="EB12" s="2">
-        <v>250</v>
-      </c>
-      <c r="EC12" s="2">
-        <v>250</v>
-      </c>
-      <c r="ED12" s="2">
-        <v>250</v>
-      </c>
-      <c r="EE12" s="2">
-        <v>250</v>
-      </c>
-      <c r="EF12" s="2">
-        <v>250</v>
-      </c>
-      <c r="EG12" s="2">
-        <v>250</v>
-      </c>
-      <c r="EH12" s="2">
-        <v>250</v>
-      </c>
-      <c r="EI12" s="2">
-        <v>250</v>
-      </c>
-      <c r="EJ12" s="2">
-        <v>250</v>
-      </c>
-      <c r="EK12" s="2">
-        <v>250</v>
-      </c>
-      <c r="EL12" s="2">
-        <v>250</v>
-      </c>
-      <c r="EM12" s="2">
-        <v>250</v>
-      </c>
-      <c r="EN12" s="2">
-        <v>250</v>
-      </c>
-      <c r="EO12" s="2">
-        <v>250</v>
-      </c>
-      <c r="EP12" s="2">
-        <v>250</v>
-      </c>
-      <c r="EQ12" s="2">
-        <v>250</v>
-      </c>
-      <c r="ER12" s="2">
-        <v>250</v>
-      </c>
-      <c r="ES12" s="2">
-        <v>250</v>
-      </c>
-      <c r="ET12" s="2">
-        <v>250</v>
-      </c>
-      <c r="EU12" s="2">
-        <v>250</v>
-      </c>
-      <c r="EV12" s="2">
-        <v>250</v>
-      </c>
-      <c r="EW12" s="2">
-        <v>250</v>
-      </c>
-      <c r="EX12" s="2">
-        <v>250</v>
-      </c>
-      <c r="EY12" s="2">
-        <v>250</v>
-      </c>
-      <c r="EZ12" s="2">
-        <v>250</v>
-      </c>
-      <c r="FA12" s="2">
-        <v>250</v>
-      </c>
-      <c r="FB12" s="2">
-        <v>250</v>
-      </c>
-      <c r="FC12" s="2">
-        <v>250</v>
-      </c>
-      <c r="FD12" s="2">
-        <v>250</v>
-      </c>
-      <c r="FE12" s="2">
-        <v>250</v>
-      </c>
-      <c r="FF12" s="2">
-        <v>250</v>
-      </c>
-      <c r="FG12" s="2">
-        <v>250</v>
-      </c>
-      <c r="FH12" s="2">
-        <v>250</v>
-      </c>
-      <c r="FI12" s="2">
-        <v>250</v>
-      </c>
-      <c r="FJ12" s="2">
-        <v>250</v>
-      </c>
-      <c r="FK12" s="2">
-        <v>250</v>
-      </c>
-      <c r="FL12" s="2">
-        <v>250</v>
-      </c>
-      <c r="FM12" s="2">
-        <v>250</v>
-      </c>
-      <c r="FN12" s="2">
-        <v>250</v>
-      </c>
-      <c r="FO12" s="2">
-        <v>250</v>
-      </c>
-      <c r="FP12" s="2">
-        <v>250</v>
-      </c>
-      <c r="FQ12" s="2">
-        <v>250</v>
-      </c>
-      <c r="FR12" s="2">
-        <v>250</v>
-      </c>
-      <c r="FS12" s="2">
-        <v>250</v>
-      </c>
-      <c r="FT12" s="2">
-        <v>250</v>
-      </c>
-      <c r="FU12" s="2">
-        <v>250</v>
-      </c>
-      <c r="FV12" s="2">
-        <v>250</v>
-      </c>
-      <c r="FW12" s="2">
-        <v>250</v>
-      </c>
-      <c r="FX12" s="2">
-        <v>250</v>
-      </c>
-      <c r="FY12" s="2">
-        <v>250</v>
-      </c>
-      <c r="FZ12" s="2">
-        <v>250</v>
-      </c>
-      <c r="GA12" s="2">
-        <v>250</v>
-      </c>
-      <c r="GB12" s="2">
-        <v>250</v>
-      </c>
-      <c r="GC12" s="2">
-        <v>250</v>
-      </c>
-      <c r="GD12" s="2">
-        <v>250</v>
-      </c>
-      <c r="GE12" s="2">
-        <v>250</v>
-      </c>
-      <c r="GF12" s="2">
-        <v>250</v>
-      </c>
-      <c r="GG12" s="2">
-        <v>250</v>
-      </c>
-      <c r="GH12" s="2">
-        <v>250</v>
-      </c>
-      <c r="GI12" s="2">
-        <v>250</v>
-      </c>
-      <c r="GJ12" s="2">
-        <v>250</v>
-      </c>
-      <c r="GK12" s="2">
-        <v>250</v>
-      </c>
-      <c r="GL12" s="2">
-        <v>250</v>
-      </c>
-      <c r="GM12" s="2">
-        <v>250</v>
-      </c>
-      <c r="GN12" s="2">
-        <v>250</v>
-      </c>
-      <c r="GO12" s="2">
-        <v>250</v>
-      </c>
-      <c r="GP12" s="2">
-        <v>250</v>
-      </c>
-      <c r="GQ12" s="2">
-        <v>250</v>
-      </c>
-      <c r="GR12" s="2">
-        <v>250</v>
-      </c>
-      <c r="GS12" s="2">
-        <v>250</v>
-      </c>
-      <c r="GT12" s="2">
-        <v>250</v>
-      </c>
-      <c r="GU12" s="2">
-        <v>250</v>
-      </c>
-      <c r="GV12" s="2">
-        <v>250</v>
-      </c>
-      <c r="GW12" s="2">
-        <v>250</v>
-      </c>
-      <c r="GX12" s="2">
-        <v>250</v>
-      </c>
-      <c r="GY12" s="2">
-        <v>250</v>
-      </c>
-      <c r="GZ12" s="2">
-        <v>250</v>
-      </c>
-      <c r="HA12" s="2">
-        <v>250</v>
-      </c>
-      <c r="HB12" s="2">
-        <v>250</v>
-      </c>
-      <c r="HC12" s="2">
-        <v>250</v>
-      </c>
-      <c r="HD12" s="2">
-        <v>250</v>
-      </c>
-      <c r="HE12" s="2">
-        <v>250</v>
-      </c>
-      <c r="HF12" s="2">
-        <v>250</v>
-      </c>
-      <c r="HG12" s="2">
-        <v>250</v>
-      </c>
-      <c r="HH12" s="2">
-        <v>250</v>
-      </c>
-      <c r="HI12" s="2">
-        <v>250</v>
-      </c>
-      <c r="HJ12" s="2">
+      <c r="C12">
+        <v>250</v>
+      </c>
+      <c r="D12">
+        <v>250</v>
+      </c>
+      <c r="E12">
+        <v>250</v>
+      </c>
+      <c r="F12">
+        <v>250</v>
+      </c>
+      <c r="G12">
+        <v>250</v>
+      </c>
+      <c r="H12">
+        <v>250</v>
+      </c>
+      <c r="I12">
+        <v>250</v>
+      </c>
+      <c r="J12">
+        <v>250</v>
+      </c>
+      <c r="K12">
+        <v>250</v>
+      </c>
+      <c r="L12">
+        <v>250</v>
+      </c>
+      <c r="M12">
+        <v>250</v>
+      </c>
+      <c r="N12">
+        <v>250</v>
+      </c>
+      <c r="O12">
+        <v>250</v>
+      </c>
+      <c r="P12">
+        <v>250</v>
+      </c>
+      <c r="Q12">
+        <v>250</v>
+      </c>
+      <c r="R12">
+        <v>250</v>
+      </c>
+      <c r="S12">
+        <v>250</v>
+      </c>
+      <c r="T12">
+        <v>250</v>
+      </c>
+      <c r="U12">
+        <v>250</v>
+      </c>
+      <c r="V12">
+        <v>250</v>
+      </c>
+      <c r="W12">
+        <v>250</v>
+      </c>
+      <c r="X12">
+        <v>250</v>
+      </c>
+      <c r="Y12">
+        <v>250</v>
+      </c>
+      <c r="Z12">
+        <v>250</v>
+      </c>
+      <c r="AA12">
+        <v>250</v>
+      </c>
+      <c r="AB12">
+        <v>250</v>
+      </c>
+      <c r="AC12">
+        <v>250</v>
+      </c>
+      <c r="AD12">
+        <v>250</v>
+      </c>
+      <c r="AE12">
+        <v>250</v>
+      </c>
+      <c r="AF12">
+        <v>250</v>
+      </c>
+      <c r="AG12">
+        <v>250</v>
+      </c>
+      <c r="AH12">
+        <v>250</v>
+      </c>
+      <c r="AI12">
+        <v>250</v>
+      </c>
+      <c r="AJ12">
+        <v>250</v>
+      </c>
+      <c r="AK12">
+        <v>250</v>
+      </c>
+      <c r="AL12">
+        <v>250</v>
+      </c>
+      <c r="AM12">
+        <v>250</v>
+      </c>
+      <c r="AN12">
+        <v>250</v>
+      </c>
+      <c r="AO12">
+        <v>250</v>
+      </c>
+      <c r="AP12">
+        <v>250</v>
+      </c>
+      <c r="AQ12">
+        <v>250</v>
+      </c>
+      <c r="AR12">
+        <v>250</v>
+      </c>
+      <c r="AS12">
+        <v>250</v>
+      </c>
+      <c r="AT12">
+        <v>250</v>
+      </c>
+      <c r="AU12">
+        <v>250</v>
+      </c>
+      <c r="AV12">
+        <v>250</v>
+      </c>
+      <c r="AW12">
+        <v>250</v>
+      </c>
+      <c r="AX12">
+        <v>250</v>
+      </c>
+      <c r="AY12">
+        <v>250</v>
+      </c>
+      <c r="AZ12">
+        <v>250</v>
+      </c>
+      <c r="BA12">
+        <v>250</v>
+      </c>
+      <c r="BB12">
+        <v>250</v>
+      </c>
+      <c r="BC12">
+        <v>250</v>
+      </c>
+      <c r="BD12">
+        <v>250</v>
+      </c>
+      <c r="BE12">
+        <v>250</v>
+      </c>
+      <c r="BF12">
+        <v>250</v>
+      </c>
+      <c r="BG12">
+        <v>250</v>
+      </c>
+      <c r="BH12">
+        <v>250</v>
+      </c>
+      <c r="BI12">
+        <v>250</v>
+      </c>
+      <c r="BJ12">
+        <v>250</v>
+      </c>
+      <c r="BK12">
+        <v>250</v>
+      </c>
+      <c r="BL12">
+        <v>250</v>
+      </c>
+      <c r="BM12">
+        <v>250</v>
+      </c>
+      <c r="BN12">
+        <v>250</v>
+      </c>
+      <c r="BO12">
+        <v>250</v>
+      </c>
+      <c r="BP12">
+        <v>250</v>
+      </c>
+      <c r="BQ12">
+        <v>250</v>
+      </c>
+      <c r="BR12">
+        <v>250</v>
+      </c>
+      <c r="BS12">
+        <v>250</v>
+      </c>
+      <c r="BT12">
+        <v>250</v>
+      </c>
+      <c r="BU12">
+        <v>250</v>
+      </c>
+      <c r="BV12">
+        <v>250</v>
+      </c>
+      <c r="BW12">
+        <v>250</v>
+      </c>
+      <c r="BX12">
+        <v>250</v>
+      </c>
+      <c r="BY12">
+        <v>250</v>
+      </c>
+      <c r="BZ12">
+        <v>250</v>
+      </c>
+      <c r="CA12">
+        <v>250</v>
+      </c>
+      <c r="CB12">
+        <v>250</v>
+      </c>
+      <c r="CC12">
+        <v>250</v>
+      </c>
+      <c r="CD12">
+        <v>250</v>
+      </c>
+      <c r="CE12">
+        <v>250</v>
+      </c>
+      <c r="CF12">
+        <v>250</v>
+      </c>
+      <c r="CG12">
+        <v>250</v>
+      </c>
+      <c r="CH12">
+        <v>250</v>
+      </c>
+      <c r="CI12">
+        <v>250</v>
+      </c>
+      <c r="CJ12">
+        <v>250</v>
+      </c>
+      <c r="CK12">
+        <v>250</v>
+      </c>
+      <c r="CL12">
+        <v>250</v>
+      </c>
+      <c r="CM12">
+        <v>250</v>
+      </c>
+      <c r="CN12">
+        <v>250</v>
+      </c>
+      <c r="CO12">
+        <v>250</v>
+      </c>
+      <c r="CP12">
+        <v>250</v>
+      </c>
+      <c r="CQ12">
+        <v>250</v>
+      </c>
+      <c r="CR12">
+        <v>250</v>
+      </c>
+      <c r="CS12">
+        <v>250</v>
+      </c>
+      <c r="CT12">
+        <v>250</v>
+      </c>
+      <c r="CU12">
+        <v>250</v>
+      </c>
+      <c r="CV12">
+        <v>250</v>
+      </c>
+      <c r="CW12">
+        <v>250</v>
+      </c>
+      <c r="CX12">
+        <v>250</v>
+      </c>
+      <c r="CY12">
+        <v>250</v>
+      </c>
+      <c r="CZ12">
+        <v>250</v>
+      </c>
+      <c r="DA12">
+        <v>250</v>
+      </c>
+      <c r="DB12">
+        <v>250</v>
+      </c>
+      <c r="DC12">
+        <v>250</v>
+      </c>
+      <c r="DD12">
+        <v>250</v>
+      </c>
+      <c r="DE12">
+        <v>250</v>
+      </c>
+      <c r="DF12">
+        <v>250</v>
+      </c>
+      <c r="DG12">
+        <v>250</v>
+      </c>
+      <c r="DH12">
+        <v>250</v>
+      </c>
+      <c r="DI12">
+        <v>250</v>
+      </c>
+      <c r="DJ12">
+        <v>250</v>
+      </c>
+      <c r="DK12">
+        <v>250</v>
+      </c>
+      <c r="DL12">
+        <v>250</v>
+      </c>
+      <c r="DM12">
+        <v>250</v>
+      </c>
+      <c r="DN12">
+        <v>250</v>
+      </c>
+      <c r="DO12">
+        <v>250</v>
+      </c>
+      <c r="DP12">
+        <v>250</v>
+      </c>
+      <c r="DQ12">
+        <v>250</v>
+      </c>
+      <c r="DR12">
+        <v>250</v>
+      </c>
+      <c r="DS12">
+        <v>250</v>
+      </c>
+      <c r="DT12">
+        <v>250</v>
+      </c>
+      <c r="DU12">
+        <v>250</v>
+      </c>
+      <c r="DV12">
+        <v>250</v>
+      </c>
+      <c r="DW12">
+        <v>250</v>
+      </c>
+      <c r="DX12">
+        <v>250</v>
+      </c>
+      <c r="DY12">
+        <v>250</v>
+      </c>
+      <c r="DZ12">
+        <v>250</v>
+      </c>
+      <c r="EA12">
+        <v>250</v>
+      </c>
+      <c r="EB12">
+        <v>250</v>
+      </c>
+      <c r="EC12">
+        <v>250</v>
+      </c>
+      <c r="ED12">
+        <v>250</v>
+      </c>
+      <c r="EE12">
+        <v>250</v>
+      </c>
+      <c r="EF12">
+        <v>250</v>
+      </c>
+      <c r="EG12">
+        <v>250</v>
+      </c>
+      <c r="EH12">
+        <v>250</v>
+      </c>
+      <c r="EI12">
+        <v>250</v>
+      </c>
+      <c r="EJ12">
+        <v>250</v>
+      </c>
+      <c r="EK12">
+        <v>250</v>
+      </c>
+      <c r="EL12">
+        <v>250</v>
+      </c>
+      <c r="EM12">
+        <v>250</v>
+      </c>
+      <c r="EN12">
+        <v>250</v>
+      </c>
+      <c r="EO12">
+        <v>250</v>
+      </c>
+      <c r="EP12">
+        <v>250</v>
+      </c>
+      <c r="EQ12">
+        <v>250</v>
+      </c>
+      <c r="ER12">
+        <v>250</v>
+      </c>
+      <c r="ES12">
+        <v>250</v>
+      </c>
+      <c r="ET12">
+        <v>250</v>
+      </c>
+      <c r="EU12">
+        <v>250</v>
+      </c>
+      <c r="EV12">
+        <v>250</v>
+      </c>
+      <c r="EW12">
+        <v>250</v>
+      </c>
+      <c r="EX12">
+        <v>250</v>
+      </c>
+      <c r="EY12">
+        <v>250</v>
+      </c>
+      <c r="EZ12">
+        <v>250</v>
+      </c>
+      <c r="FA12">
+        <v>250</v>
+      </c>
+      <c r="FB12">
+        <v>250</v>
+      </c>
+      <c r="FC12">
+        <v>250</v>
+      </c>
+      <c r="FD12">
+        <v>250</v>
+      </c>
+      <c r="FE12">
+        <v>250</v>
+      </c>
+      <c r="FF12">
+        <v>250</v>
+      </c>
+      <c r="FG12">
+        <v>250</v>
+      </c>
+      <c r="FH12">
+        <v>250</v>
+      </c>
+      <c r="FI12">
+        <v>250</v>
+      </c>
+      <c r="FJ12">
+        <v>250</v>
+      </c>
+      <c r="FK12">
+        <v>250</v>
+      </c>
+      <c r="FL12">
+        <v>250</v>
+      </c>
+      <c r="FM12">
+        <v>250</v>
+      </c>
+      <c r="FN12">
+        <v>250</v>
+      </c>
+      <c r="FO12">
+        <v>250</v>
+      </c>
+      <c r="FP12">
+        <v>250</v>
+      </c>
+      <c r="FQ12">
+        <v>250</v>
+      </c>
+      <c r="FR12">
+        <v>250</v>
+      </c>
+      <c r="FS12">
+        <v>250</v>
+      </c>
+      <c r="FT12">
+        <v>250</v>
+      </c>
+      <c r="FU12">
+        <v>250</v>
+      </c>
+      <c r="FV12">
+        <v>250</v>
+      </c>
+      <c r="FW12">
+        <v>250</v>
+      </c>
+      <c r="FX12">
+        <v>250</v>
+      </c>
+      <c r="FY12">
+        <v>250</v>
+      </c>
+      <c r="FZ12">
+        <v>250</v>
+      </c>
+      <c r="GA12">
+        <v>250</v>
+      </c>
+      <c r="GB12">
+        <v>250</v>
+      </c>
+      <c r="GC12">
+        <v>250</v>
+      </c>
+      <c r="GD12">
+        <v>250</v>
+      </c>
+      <c r="GE12">
+        <v>250</v>
+      </c>
+      <c r="GF12">
+        <v>250</v>
+      </c>
+      <c r="GG12">
+        <v>250</v>
+      </c>
+      <c r="GH12">
+        <v>250</v>
+      </c>
+      <c r="GI12">
+        <v>250</v>
+      </c>
+      <c r="GJ12">
+        <v>250</v>
+      </c>
+      <c r="GK12">
+        <v>250</v>
+      </c>
+      <c r="GL12">
+        <v>250</v>
+      </c>
+      <c r="GM12">
+        <v>250</v>
+      </c>
+      <c r="GN12">
+        <v>250</v>
+      </c>
+      <c r="GO12">
+        <v>250</v>
+      </c>
+      <c r="GP12">
+        <v>250</v>
+      </c>
+      <c r="GQ12">
+        <v>250</v>
+      </c>
+      <c r="GR12">
+        <v>250</v>
+      </c>
+      <c r="GS12">
+        <v>250</v>
+      </c>
+      <c r="GT12">
+        <v>250</v>
+      </c>
+      <c r="GU12">
+        <v>250</v>
+      </c>
+      <c r="GV12">
+        <v>250</v>
+      </c>
+      <c r="GW12">
+        <v>250</v>
+      </c>
+      <c r="GX12">
+        <v>250</v>
+      </c>
+      <c r="GY12">
+        <v>250</v>
+      </c>
+      <c r="GZ12">
+        <v>250</v>
+      </c>
+      <c r="HA12">
+        <v>250</v>
+      </c>
+      <c r="HB12">
+        <v>250</v>
+      </c>
+      <c r="HC12">
+        <v>250</v>
+      </c>
+      <c r="HD12">
+        <v>250</v>
+      </c>
+      <c r="HE12">
+        <v>250</v>
+      </c>
+      <c r="HF12">
+        <v>250</v>
+      </c>
+      <c r="HG12">
+        <v>250</v>
+      </c>
+      <c r="HH12">
+        <v>250</v>
+      </c>
+      <c r="HI12">
+        <v>250</v>
+      </c>
+      <c r="HJ12">
         <v>250</v>
       </c>
     </row>
